--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.75753305319222</v>
+        <v>25.75753305319216</v>
       </c>
       <c r="C2">
-        <v>19.23655421745924</v>
+        <v>19.23655421745931</v>
       </c>
       <c r="D2">
-        <v>6.518012796664419</v>
+        <v>6.518012796664308</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31012236487003</v>
+        <v>37.31012236487006</v>
       </c>
       <c r="G2">
-        <v>25.98448557099349</v>
+        <v>25.98448557099352</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.02040747962938</v>
+        <v>31.02040747962936</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91157404359138</v>
+        <v>23.91157404359146</v>
       </c>
       <c r="C3">
-        <v>17.90683174546809</v>
+        <v>17.90683174546811</v>
       </c>
       <c r="D3">
-        <v>6.146033519934515</v>
+        <v>6.146033519934514</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.98608448617686</v>
+        <v>34.98608448617685</v>
       </c>
       <c r="G3">
-        <v>24.58738152883624</v>
+        <v>24.58738152883616</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.55259650857221</v>
+        <v>28.55259650857225</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72461475295544</v>
+        <v>22.72461475295558</v>
       </c>
       <c r="C4">
-        <v>17.05369174951056</v>
+        <v>17.05369174951047</v>
       </c>
       <c r="D4">
-        <v>5.91156698168478</v>
+        <v>5.911566981684753</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.55635701646796</v>
+        <v>33.55635701646811</v>
       </c>
       <c r="G4">
-        <v>23.74251073909186</v>
+        <v>23.74251073909196</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.99441395529702</v>
+        <v>26.9944139552971</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22706104944529</v>
+        <v>22.22706104944524</v>
       </c>
       <c r="C5">
-        <v>16.69651958830294</v>
+        <v>16.69651958830292</v>
       </c>
       <c r="D5">
-        <v>5.814393726045424</v>
+        <v>5.81439372604527</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.97297671060777</v>
+        <v>32.97297671060782</v>
       </c>
       <c r="G5">
-        <v>23.40142775544119</v>
+        <v>23.40142775544122</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.34740528541336</v>
+        <v>26.34740528541328</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14359485472215</v>
+        <v>22.14359485472213</v>
       </c>
       <c r="C6">
-        <v>16.636629487724</v>
+        <v>16.63662948772402</v>
       </c>
       <c r="D6">
-        <v>5.79815770366967</v>
+        <v>5.798157703669704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.87606398296188</v>
+        <v>32.87606398296196</v>
       </c>
       <c r="G6">
-        <v>23.34498578962613</v>
+        <v>23.34498578962621</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.23921027107065</v>
+        <v>26.23921027107069</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71796117421975</v>
+        <v>22.71796117421968</v>
       </c>
       <c r="C7">
-        <v>17.0489136550383</v>
+        <v>17.04891365503832</v>
       </c>
       <c r="D7">
-        <v>5.910263160401635</v>
+        <v>5.910263160401541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.54849231086715</v>
+        <v>33.54849231086723</v>
       </c>
       <c r="G7">
-        <v>23.73789776130544</v>
+        <v>23.73789776130549</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.98573840910871</v>
+        <v>26.98573840910863</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13190343826646</v>
+        <v>25.13190343826656</v>
       </c>
       <c r="C8">
-        <v>18.78549289119301</v>
+        <v>18.78549289119293</v>
       </c>
       <c r="D8">
-        <v>6.390942298403631</v>
+        <v>6.390942298403683</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.50925285000146</v>
+        <v>36.50925285000155</v>
       </c>
       <c r="G8">
-        <v>25.50000468614331</v>
+        <v>25.50000468614338</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.17760738840657</v>
+        <v>30.17760738840677</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.46170765470409</v>
+        <v>29.46170765470411</v>
       </c>
       <c r="C9">
-        <v>21.91561269553986</v>
+        <v>21.91561269553991</v>
       </c>
       <c r="D9">
-        <v>7.292190953571162</v>
+        <v>7.292190953571151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.4388451849618</v>
+        <v>42.43884518496156</v>
       </c>
       <c r="G9">
-        <v>29.0686506572989</v>
+        <v>29.06865065729872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.16512816224148</v>
+        <v>36.1651281622414</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.43185770936999</v>
+        <v>32.43185770937012</v>
       </c>
       <c r="C10">
-        <v>24.0753015926179</v>
+        <v>24.07530159261781</v>
       </c>
       <c r="D10">
-        <v>7.943320955483589</v>
+        <v>7.943320955483612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.07180620276522</v>
+        <v>47.07180620276532</v>
       </c>
       <c r="G10">
-        <v>32.17592337971922</v>
+        <v>32.17592337971926</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.52403400613267</v>
+        <v>40.52403400613274</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.7477130399165</v>
+        <v>33.74771303991661</v>
       </c>
       <c r="C11">
-        <v>25.03597809186601</v>
+        <v>25.03597809186607</v>
       </c>
       <c r="D11">
-        <v>8.242291889523894</v>
+        <v>8.242291889523813</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.1953199312156</v>
+        <v>49.19531993121596</v>
       </c>
       <c r="G11">
-        <v>33.64048676488839</v>
+        <v>33.64048676488868</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.53923333669633</v>
+        <v>42.53923333669641</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.24209475623802</v>
+        <v>34.24209475623805</v>
       </c>
       <c r="C12">
-        <v>25.39761726544002</v>
+        <v>25.3976172654398</v>
       </c>
       <c r="D12">
-        <v>8.356562680689501</v>
+        <v>8.356562680689644</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.00463832671343</v>
+        <v>50.00463832671333</v>
       </c>
       <c r="G12">
-        <v>34.19873222711553</v>
+        <v>34.19873222711543</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.31196091723165</v>
+        <v>43.31196091723164</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.13577205463148</v>
+        <v>34.13577205463144</v>
       </c>
       <c r="C13">
-        <v>25.31980829766102</v>
+        <v>25.31980829766091</v>
       </c>
       <c r="D13">
-        <v>8.331891982019119</v>
+        <v>8.331891982019179</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.83004870873147</v>
+        <v>49.83004870873129</v>
       </c>
       <c r="G13">
-        <v>34.07830359029402</v>
+        <v>34.07830359029385</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.14501344555507</v>
+        <v>43.14501344555508</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.78845643286233</v>
+        <v>33.7884564328622</v>
       </c>
       <c r="C14">
-        <v>25.06576667621079</v>
+        <v>25.06576667621059</v>
       </c>
       <c r="D14">
-        <v>8.251667098419526</v>
+        <v>8.251667098419635</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.26177867632909</v>
+        <v>49.26177867632894</v>
       </c>
       <c r="G14">
-        <v>33.68632733122466</v>
+        <v>33.68632733122453</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.60257839571198</v>
+        <v>42.60257839571189</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.57524766859192</v>
+        <v>33.57524766859203</v>
       </c>
       <c r="C15">
-        <v>24.90991349023726</v>
+        <v>24.90991349023723</v>
       </c>
       <c r="D15">
-        <v>8.202688754503267</v>
+        <v>8.20268875450321</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.91447642965522</v>
+        <v>48.91447642965532</v>
       </c>
       <c r="G15">
-        <v>33.44677445385674</v>
+        <v>33.44677445385685</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.27175163207328</v>
+        <v>42.27175163207332</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34524613540619</v>
+        <v>32.34524613540628</v>
       </c>
       <c r="C16">
-        <v>24.01215839955976</v>
+        <v>24.01215839955972</v>
       </c>
       <c r="D16">
-        <v>7.923888881174425</v>
+        <v>7.92388888117445</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.93357569308473</v>
+        <v>46.93357569308472</v>
       </c>
       <c r="G16">
-        <v>32.0806012372065</v>
+        <v>32.08060123720649</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.39337243476796</v>
+        <v>40.39337243476798</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.58237844028993</v>
+        <v>31.58237844029</v>
       </c>
       <c r="C17">
-        <v>23.4564497289095</v>
+        <v>23.45644972890967</v>
       </c>
       <c r="D17">
-        <v>7.753957564489309</v>
+        <v>7.753957564489182</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.72420551126293</v>
+        <v>45.72420551126314</v>
       </c>
       <c r="G17">
-        <v>31.24673433442978</v>
+        <v>31.24673433442998</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.25235116064803</v>
+        <v>39.25235116064808</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.14019089564719</v>
+        <v>31.14019089564721</v>
       </c>
       <c r="C18">
-        <v>23.13469839645671</v>
+        <v>23.13469839645668</v>
       </c>
       <c r="D18">
-        <v>7.656427171681475</v>
+        <v>7.656427171681546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.02988811835123</v>
+        <v>45.02988811835119</v>
       </c>
       <c r="G18">
-        <v>30.76809377139774</v>
+        <v>30.76809377139769</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.59873103450214</v>
+        <v>38.59873103450203</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.98985821644403</v>
+        <v>30.98985821644396</v>
       </c>
       <c r="C19">
-        <v>23.02536898045501</v>
+        <v>23.02536898045485</v>
       </c>
       <c r="D19">
-        <v>7.623424870139371</v>
+        <v>7.623424870139458</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.79495142437957</v>
+        <v>44.79495142437943</v>
       </c>
       <c r="G19">
-        <v>30.60615373489151</v>
+        <v>30.60615373489138</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.37775932280711</v>
+        <v>38.37775932280702</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.6639320962332</v>
+        <v>31.66393209623315</v>
       </c>
       <c r="C20">
-        <v>23.5158193221016</v>
+        <v>23.5158193221017</v>
       </c>
       <c r="D20">
-        <v>7.772021366617876</v>
+        <v>7.772021366617936</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.85279468643559</v>
+        <v>45.85279468643543</v>
       </c>
       <c r="G20">
-        <v>31.33538781331732</v>
+        <v>31.3353878133172</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.37350837629472</v>
+        <v>39.37350837629458</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.89056636564126</v>
+        <v>33.89056636564116</v>
       </c>
       <c r="C21">
-        <v>25.1404337772307</v>
+        <v>25.14043377723059</v>
       </c>
       <c r="D21">
-        <v>8.275195815205301</v>
+        <v>8.275195815205473</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.4285241778453</v>
+        <v>49.42852417784536</v>
       </c>
       <c r="G21">
-        <v>33.8013424456987</v>
+        <v>33.80134244569874</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.76159504662789</v>
+        <v>42.7615950466278</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.32386940970273</v>
+        <v>35.32386940970271</v>
       </c>
       <c r="C22">
-        <v>26.19040211959342</v>
+        <v>26.19040211959344</v>
       </c>
       <c r="D22">
-        <v>8.610739036213809</v>
+        <v>8.61073903621371</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.79792078489878</v>
+        <v>51.79792078489874</v>
       </c>
       <c r="G22">
-        <v>35.43570276861721</v>
+        <v>35.43570276861719</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.03577213729263</v>
+        <v>45.03577213729262</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.56041030766433</v>
+        <v>34.56041030766431</v>
       </c>
       <c r="C23">
-        <v>25.63068150047383</v>
+        <v>25.63068150047382</v>
       </c>
       <c r="D23">
-        <v>8.430745974915412</v>
+        <v>8.430745974915428</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.5291035002905</v>
+        <v>50.52910350029053</v>
       </c>
       <c r="G23">
-        <v>34.56050087040483</v>
+        <v>34.56050087040485</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>43.8143543472639</v>
+        <v>43.81435434726383</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.62707299961851</v>
+        <v>31.62707299961848</v>
       </c>
       <c r="C24">
-        <v>23.48898545999353</v>
+        <v>23.48898545999322</v>
       </c>
       <c r="D24">
-        <v>7.76385425227389</v>
+        <v>7.763854252273901</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.79465671594242</v>
+        <v>45.7946567159423</v>
       </c>
       <c r="G24">
-        <v>31.29530534188931</v>
+        <v>31.29530534188923</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.31872617065696</v>
+        <v>39.31872617065684</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33038632784838</v>
+        <v>28.33038632784833</v>
       </c>
       <c r="C25">
-        <v>21.09580177890266</v>
+        <v>21.09580177890256</v>
       </c>
       <c r="D25">
-        <v>7.051632230709247</v>
+        <v>7.051632230709223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.73807967739682</v>
+        <v>40.73807967739687</v>
       </c>
       <c r="G25">
-        <v>28.08891291676689</v>
+        <v>28.08891291676697</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.56337834882179</v>
+        <v>34.56337834882178</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.75753305319216</v>
+        <v>25.75753305319222</v>
       </c>
       <c r="C2">
-        <v>19.23655421745931</v>
+        <v>19.23655421745924</v>
       </c>
       <c r="D2">
-        <v>6.518012796664308</v>
+        <v>6.518012796664419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31012236487006</v>
+        <v>37.31012236487003</v>
       </c>
       <c r="G2">
-        <v>25.98448557099352</v>
+        <v>25.98448557099349</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.02040747962936</v>
+        <v>31.02040747962938</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91157404359146</v>
+        <v>23.91157404359138</v>
       </c>
       <c r="C3">
-        <v>17.90683174546811</v>
+        <v>17.90683174546809</v>
       </c>
       <c r="D3">
-        <v>6.146033519934514</v>
+        <v>6.146033519934515</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.98608448617685</v>
+        <v>34.98608448617686</v>
       </c>
       <c r="G3">
-        <v>24.58738152883616</v>
+        <v>24.58738152883624</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.55259650857225</v>
+        <v>28.55259650857221</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72461475295558</v>
+        <v>22.72461475295544</v>
       </c>
       <c r="C4">
-        <v>17.05369174951047</v>
+        <v>17.05369174951056</v>
       </c>
       <c r="D4">
-        <v>5.911566981684753</v>
+        <v>5.91156698168478</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.55635701646811</v>
+        <v>33.55635701646796</v>
       </c>
       <c r="G4">
-        <v>23.74251073909196</v>
+        <v>23.74251073909186</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.9944139552971</v>
+        <v>26.99441395529702</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22706104944524</v>
+        <v>22.22706104944529</v>
       </c>
       <c r="C5">
-        <v>16.69651958830292</v>
+        <v>16.69651958830294</v>
       </c>
       <c r="D5">
-        <v>5.81439372604527</v>
+        <v>5.814393726045424</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.97297671060782</v>
+        <v>32.97297671060777</v>
       </c>
       <c r="G5">
-        <v>23.40142775544122</v>
+        <v>23.40142775544119</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.34740528541328</v>
+        <v>26.34740528541336</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14359485472213</v>
+        <v>22.14359485472215</v>
       </c>
       <c r="C6">
-        <v>16.63662948772402</v>
+        <v>16.636629487724</v>
       </c>
       <c r="D6">
-        <v>5.798157703669704</v>
+        <v>5.79815770366967</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.87606398296196</v>
+        <v>32.87606398296188</v>
       </c>
       <c r="G6">
-        <v>23.34498578962621</v>
+        <v>23.34498578962613</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.23921027107069</v>
+        <v>26.23921027107065</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71796117421968</v>
+        <v>22.71796117421975</v>
       </c>
       <c r="C7">
-        <v>17.04891365503832</v>
+        <v>17.0489136550383</v>
       </c>
       <c r="D7">
-        <v>5.910263160401541</v>
+        <v>5.910263160401635</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.54849231086723</v>
+        <v>33.54849231086715</v>
       </c>
       <c r="G7">
-        <v>23.73789776130549</v>
+        <v>23.73789776130544</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.98573840910863</v>
+        <v>26.98573840910871</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13190343826656</v>
+        <v>25.13190343826646</v>
       </c>
       <c r="C8">
-        <v>18.78549289119293</v>
+        <v>18.78549289119301</v>
       </c>
       <c r="D8">
-        <v>6.390942298403683</v>
+        <v>6.390942298403631</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.50925285000155</v>
+        <v>36.50925285000146</v>
       </c>
       <c r="G8">
-        <v>25.50000468614338</v>
+        <v>25.50000468614331</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.17760738840677</v>
+        <v>30.17760738840657</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.46170765470411</v>
+        <v>29.46170765470409</v>
       </c>
       <c r="C9">
-        <v>21.91561269553991</v>
+        <v>21.91561269553986</v>
       </c>
       <c r="D9">
-        <v>7.292190953571151</v>
+        <v>7.292190953571162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.43884518496156</v>
+        <v>42.4388451849618</v>
       </c>
       <c r="G9">
-        <v>29.06865065729872</v>
+        <v>29.0686506572989</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.1651281622414</v>
+        <v>36.16512816224148</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.43185770937012</v>
+        <v>32.43185770936999</v>
       </c>
       <c r="C10">
-        <v>24.07530159261781</v>
+        <v>24.0753015926179</v>
       </c>
       <c r="D10">
-        <v>7.943320955483612</v>
+        <v>7.943320955483589</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.07180620276532</v>
+        <v>47.07180620276522</v>
       </c>
       <c r="G10">
-        <v>32.17592337971926</v>
+        <v>32.17592337971922</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.52403400613274</v>
+        <v>40.52403400613267</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.74771303991661</v>
+        <v>33.7477130399165</v>
       </c>
       <c r="C11">
-        <v>25.03597809186607</v>
+        <v>25.03597809186601</v>
       </c>
       <c r="D11">
-        <v>8.242291889523813</v>
+        <v>8.242291889523894</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.19531993121596</v>
+        <v>49.1953199312156</v>
       </c>
       <c r="G11">
-        <v>33.64048676488868</v>
+        <v>33.64048676488839</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.53923333669641</v>
+        <v>42.53923333669633</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.24209475623805</v>
+        <v>34.24209475623802</v>
       </c>
       <c r="C12">
-        <v>25.3976172654398</v>
+        <v>25.39761726544002</v>
       </c>
       <c r="D12">
-        <v>8.356562680689644</v>
+        <v>8.356562680689501</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.00463832671333</v>
+        <v>50.00463832671343</v>
       </c>
       <c r="G12">
-        <v>34.19873222711543</v>
+        <v>34.19873222711553</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.31196091723164</v>
+        <v>43.31196091723165</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.13577205463144</v>
+        <v>34.13577205463148</v>
       </c>
       <c r="C13">
-        <v>25.31980829766091</v>
+        <v>25.31980829766102</v>
       </c>
       <c r="D13">
-        <v>8.331891982019179</v>
+        <v>8.331891982019119</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.83004870873129</v>
+        <v>49.83004870873147</v>
       </c>
       <c r="G13">
-        <v>34.07830359029385</v>
+        <v>34.07830359029402</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.14501344555508</v>
+        <v>43.14501344555507</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.7884564328622</v>
+        <v>33.78845643286233</v>
       </c>
       <c r="C14">
-        <v>25.06576667621059</v>
+        <v>25.06576667621079</v>
       </c>
       <c r="D14">
-        <v>8.251667098419635</v>
+        <v>8.251667098419526</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.26177867632894</v>
+        <v>49.26177867632909</v>
       </c>
       <c r="G14">
-        <v>33.68632733122453</v>
+        <v>33.68632733122466</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.60257839571189</v>
+        <v>42.60257839571198</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.57524766859203</v>
+        <v>33.57524766859192</v>
       </c>
       <c r="C15">
-        <v>24.90991349023723</v>
+        <v>24.90991349023726</v>
       </c>
       <c r="D15">
-        <v>8.20268875450321</v>
+        <v>8.202688754503267</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.91447642965532</v>
+        <v>48.91447642965522</v>
       </c>
       <c r="G15">
-        <v>33.44677445385685</v>
+        <v>33.44677445385674</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.27175163207332</v>
+        <v>42.27175163207328</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34524613540628</v>
+        <v>32.34524613540619</v>
       </c>
       <c r="C16">
-        <v>24.01215839955972</v>
+        <v>24.01215839955976</v>
       </c>
       <c r="D16">
-        <v>7.92388888117445</v>
+        <v>7.923888881174425</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.93357569308472</v>
+        <v>46.93357569308473</v>
       </c>
       <c r="G16">
-        <v>32.08060123720649</v>
+        <v>32.0806012372065</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.39337243476798</v>
+        <v>40.39337243476796</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.58237844029</v>
+        <v>31.58237844028993</v>
       </c>
       <c r="C17">
-        <v>23.45644972890967</v>
+        <v>23.4564497289095</v>
       </c>
       <c r="D17">
-        <v>7.753957564489182</v>
+        <v>7.753957564489309</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.72420551126314</v>
+        <v>45.72420551126293</v>
       </c>
       <c r="G17">
-        <v>31.24673433442998</v>
+        <v>31.24673433442978</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.25235116064808</v>
+        <v>39.25235116064803</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.14019089564721</v>
+        <v>31.14019089564719</v>
       </c>
       <c r="C18">
-        <v>23.13469839645668</v>
+        <v>23.13469839645671</v>
       </c>
       <c r="D18">
-        <v>7.656427171681546</v>
+        <v>7.656427171681475</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.02988811835119</v>
+        <v>45.02988811835123</v>
       </c>
       <c r="G18">
-        <v>30.76809377139769</v>
+        <v>30.76809377139774</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.59873103450203</v>
+        <v>38.59873103450214</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.98985821644396</v>
+        <v>30.98985821644403</v>
       </c>
       <c r="C19">
-        <v>23.02536898045485</v>
+        <v>23.02536898045501</v>
       </c>
       <c r="D19">
-        <v>7.623424870139458</v>
+        <v>7.623424870139371</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.79495142437943</v>
+        <v>44.79495142437957</v>
       </c>
       <c r="G19">
-        <v>30.60615373489138</v>
+        <v>30.60615373489151</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.37775932280702</v>
+        <v>38.37775932280711</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.66393209623315</v>
+        <v>31.6639320962332</v>
       </c>
       <c r="C20">
-        <v>23.5158193221017</v>
+        <v>23.5158193221016</v>
       </c>
       <c r="D20">
-        <v>7.772021366617936</v>
+        <v>7.772021366617876</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.85279468643543</v>
+        <v>45.85279468643559</v>
       </c>
       <c r="G20">
-        <v>31.3353878133172</v>
+        <v>31.33538781331732</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.37350837629458</v>
+        <v>39.37350837629472</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.89056636564116</v>
+        <v>33.89056636564126</v>
       </c>
       <c r="C21">
-        <v>25.14043377723059</v>
+        <v>25.1404337772307</v>
       </c>
       <c r="D21">
-        <v>8.275195815205473</v>
+        <v>8.275195815205301</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.42852417784536</v>
+        <v>49.4285241778453</v>
       </c>
       <c r="G21">
-        <v>33.80134244569874</v>
+        <v>33.8013424456987</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.7615950466278</v>
+        <v>42.76159504662789</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.32386940970271</v>
+        <v>35.32386940970273</v>
       </c>
       <c r="C22">
-        <v>26.19040211959344</v>
+        <v>26.19040211959342</v>
       </c>
       <c r="D22">
-        <v>8.61073903621371</v>
+        <v>8.610739036213809</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.79792078489874</v>
+        <v>51.79792078489878</v>
       </c>
       <c r="G22">
-        <v>35.43570276861719</v>
+        <v>35.43570276861721</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.03577213729262</v>
+        <v>45.03577213729263</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.56041030766431</v>
+        <v>34.56041030766433</v>
       </c>
       <c r="C23">
-        <v>25.63068150047382</v>
+        <v>25.63068150047383</v>
       </c>
       <c r="D23">
-        <v>8.430745974915428</v>
+        <v>8.430745974915412</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.52910350029053</v>
+        <v>50.5291035002905</v>
       </c>
       <c r="G23">
-        <v>34.56050087040485</v>
+        <v>34.56050087040483</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>43.81435434726383</v>
+        <v>43.8143543472639</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.62707299961848</v>
+        <v>31.62707299961851</v>
       </c>
       <c r="C24">
-        <v>23.48898545999322</v>
+        <v>23.48898545999353</v>
       </c>
       <c r="D24">
-        <v>7.763854252273901</v>
+        <v>7.76385425227389</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.7946567159423</v>
+        <v>45.79465671594242</v>
       </c>
       <c r="G24">
-        <v>31.29530534188923</v>
+        <v>31.29530534188931</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.31872617065684</v>
+        <v>39.31872617065696</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33038632784833</v>
+        <v>28.33038632784838</v>
       </c>
       <c r="C25">
-        <v>21.09580177890256</v>
+        <v>21.09580177890266</v>
       </c>
       <c r="D25">
-        <v>7.051632230709223</v>
+        <v>7.051632230709247</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.73807967739687</v>
+        <v>40.73807967739682</v>
       </c>
       <c r="G25">
-        <v>28.08891291676697</v>
+        <v>28.08891291676689</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.56337834882178</v>
+        <v>34.56337834882179</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.75753305319222</v>
+        <v>25.75631401448015</v>
       </c>
       <c r="C2">
-        <v>19.23655421745924</v>
+        <v>19.23515714775262</v>
       </c>
       <c r="D2">
-        <v>6.518012796664419</v>
+        <v>6.524106944582473</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.31012236487003</v>
+        <v>37.2757092988477</v>
       </c>
       <c r="G2">
-        <v>25.98448557099349</v>
+        <v>25.42267169892967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26.01721780351984</v>
       </c>
       <c r="I2">
-        <v>31.02040747962938</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>31.01963374867514</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91157404359138</v>
+        <v>23.91070068258344</v>
       </c>
       <c r="C3">
-        <v>17.90683174546809</v>
+        <v>17.90580110257358</v>
       </c>
       <c r="D3">
-        <v>6.146033519934515</v>
+        <v>6.151551410307836</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.98608448617686</v>
+        <v>34.95411491772601</v>
       </c>
       <c r="G3">
-        <v>24.58738152883624</v>
+        <v>23.75783954037873</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>24.61857661352048</v>
       </c>
       <c r="I3">
-        <v>28.55259650857221</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.55207789899231</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72461475295544</v>
+        <v>22.72394101062123</v>
       </c>
       <c r="C4">
-        <v>17.05369174951056</v>
+        <v>17.0528798961046</v>
       </c>
       <c r="D4">
-        <v>5.91156698168478</v>
+        <v>5.916703183276306</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.55635701646796</v>
+        <v>33.52593575139041</v>
       </c>
       <c r="G4">
-        <v>23.74251073909186</v>
+        <v>22.73099269192</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>23.77283034493641</v>
       </c>
       <c r="I4">
-        <v>26.99441395529702</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>26.99402916597415</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22706104944529</v>
+        <v>22.22646611703711</v>
       </c>
       <c r="C5">
-        <v>16.69651958830294</v>
+        <v>16.69579601190108</v>
       </c>
       <c r="D5">
-        <v>5.814393726045424</v>
+        <v>5.819367424593143</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.97297671060777</v>
+        <v>32.94319969665013</v>
       </c>
       <c r="G5">
-        <v>23.40142775544119</v>
+        <v>22.31132608160518</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.43140832018673</v>
       </c>
       <c r="I5">
-        <v>26.34740528541336</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>26.34707045736904</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14359485472215</v>
+        <v>22.14301287219272</v>
       </c>
       <c r="C6">
-        <v>16.636629487724</v>
+        <v>16.63592053483531</v>
       </c>
       <c r="D6">
-        <v>5.79815770366967</v>
+        <v>5.803103999005769</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.87606398296188</v>
+        <v>32.84639477952433</v>
       </c>
       <c r="G6">
-        <v>23.34498578962613</v>
+        <v>22.24156887097503</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>23.37491114292468</v>
       </c>
       <c r="I6">
-        <v>26.23921027107065</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>26.23888349206068</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.71796117421975</v>
+        <v>22.717288504244</v>
       </c>
       <c r="C7">
-        <v>17.0489136550383</v>
+        <v>17.04810299489493</v>
       </c>
       <c r="D7">
-        <v>5.910263160401635</v>
+        <v>5.915397198570474</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.54849231086715</v>
+        <v>33.51807967913177</v>
       </c>
       <c r="G7">
-        <v>23.73789776130544</v>
+        <v>22.72533780066194</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>23.76821272225126</v>
       </c>
       <c r="I7">
-        <v>26.98573840910871</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>26.98535431074338</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13190343826646</v>
+        <v>25.13080663115544</v>
       </c>
       <c r="C8">
-        <v>18.78549289119301</v>
+        <v>18.7842238860922</v>
       </c>
       <c r="D8">
-        <v>6.390942298403631</v>
+        <v>6.396843574164936</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.50925285000146</v>
+        <v>36.47567320178291</v>
       </c>
       <c r="G8">
-        <v>25.50000468614331</v>
+        <v>24.84951221655372</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>25.53219304852433</v>
       </c>
       <c r="I8">
-        <v>30.17760738840657</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>30.17692715827436</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.46170765470409</v>
+        <v>29.45964260185679</v>
       </c>
       <c r="C9">
-        <v>21.91561269553986</v>
+        <v>21.91335933071554</v>
       </c>
       <c r="D9">
-        <v>7.292190953571162</v>
+        <v>7.299371003478485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.4388451849618</v>
+        <v>42.39905208422239</v>
       </c>
       <c r="G9">
-        <v>29.0686506572989</v>
+        <v>29.02005239749639</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>29.10503255889284</v>
       </c>
       <c r="I9">
-        <v>36.16512816224148</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>36.16361288792201</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.43185770936999</v>
+        <v>32.42892986137903</v>
       </c>
       <c r="C10">
-        <v>24.0753015926179</v>
+        <v>24.07220717194576</v>
       </c>
       <c r="D10">
-        <v>7.943320955483589</v>
+        <v>7.951288832476544</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.07180620276522</v>
+        <v>47.0277854297231</v>
       </c>
       <c r="G10">
-        <v>32.17592337971922</v>
+        <v>32.2173229351358</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>32.05471928129913</v>
       </c>
       <c r="I10">
-        <v>40.52403400613267</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>40.52159506293921</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.7477130399165</v>
+        <v>33.74433651636755</v>
       </c>
       <c r="C11">
-        <v>25.03597809186601</v>
+        <v>25.03245362503802</v>
       </c>
       <c r="D11">
-        <v>8.242291889523894</v>
+        <v>8.25057816565592</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.1953199312156</v>
+        <v>49.14931753113279</v>
       </c>
       <c r="G11">
-        <v>33.64048676488839</v>
+        <v>33.68374153535926</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>33.46750041980729</v>
       </c>
       <c r="I11">
-        <v>42.53923333669633</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>42.53624548183292</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.24209475623802</v>
+        <v>34.23853729321559</v>
       </c>
       <c r="C12">
-        <v>25.39761726544002</v>
+        <v>25.39392037800724</v>
       </c>
       <c r="D12">
-        <v>8.356562680689501</v>
+        <v>8.364962643571074</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.00463832671343</v>
+        <v>49.95787000105639</v>
       </c>
       <c r="G12">
-        <v>34.19873222711553</v>
+        <v>34.24269057634881</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.00706843427515</v>
       </c>
       <c r="I12">
-        <v>43.31196091723165</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>43.30873792110326</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.13577205463148</v>
+        <v>34.13225411149281</v>
       </c>
       <c r="C13">
-        <v>25.31980829766102</v>
+        <v>25.31614902596404</v>
       </c>
       <c r="D13">
-        <v>8.331891982019119</v>
+        <v>8.340267792402155</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.83004870873147</v>
+        <v>49.78344617676254</v>
       </c>
       <c r="G13">
-        <v>34.07830359029402</v>
+        <v>34.12211037896862</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>33.8906223756388</v>
       </c>
       <c r="I13">
-        <v>43.14501344555507</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>43.14184249583798</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.78845643286233</v>
+        <v>33.78506526580354</v>
       </c>
       <c r="C14">
-        <v>25.06576667621079</v>
+        <v>25.06222823585354</v>
       </c>
       <c r="D14">
-        <v>8.251667098419526</v>
+        <v>8.259962874607233</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.26177867632909</v>
+        <v>49.21571362612357</v>
       </c>
       <c r="G14">
-        <v>33.68632733122466</v>
+        <v>33.72963996948176</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>33.51178624509218</v>
       </c>
       <c r="I14">
-        <v>42.60257839571198</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>42.59957180936673</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.57524766859192</v>
+        <v>33.57193261008758</v>
       </c>
       <c r="C15">
-        <v>24.90991349023726</v>
+        <v>24.90644771554851</v>
       </c>
       <c r="D15">
-        <v>8.202688754503267</v>
+        <v>8.210934565540796</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.91447642965522</v>
+        <v>48.86873831737215</v>
       </c>
       <c r="G15">
-        <v>33.44677445385674</v>
+        <v>33.48978452261422</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.28040063165525</v>
       </c>
       <c r="I15">
-        <v>42.27175163207328</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>42.26884183186198</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34524613540619</v>
+        <v>32.3423462516971</v>
       </c>
       <c r="C16">
-        <v>24.01215839955976</v>
+        <v>24.00909091730571</v>
       </c>
       <c r="D16">
-        <v>7.923888881174425</v>
+        <v>7.931835062882691</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.93357569308473</v>
+        <v>46.88968270359064</v>
       </c>
       <c r="G16">
-        <v>32.0806012372065</v>
+        <v>32.12187973712389</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>31.96291653429001</v>
       </c>
       <c r="I16">
-        <v>40.39337243476796</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>40.39096612070549</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.58237844028993</v>
+        <v>31.57971709468039</v>
       </c>
       <c r="C17">
-        <v>23.4564497289095</v>
+        <v>23.45361278763437</v>
       </c>
       <c r="D17">
-        <v>7.753957564489309</v>
+        <v>7.761709072051779</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.72420551126293</v>
+        <v>45.68142525229331</v>
       </c>
       <c r="G17">
-        <v>31.24673433442978</v>
+        <v>31.2869531715356</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>31.16067484561809</v>
       </c>
       <c r="I17">
-        <v>39.25235116064803</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>39.25021576293275</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.14019089564719</v>
+        <v>31.13766169010936</v>
       </c>
       <c r="C18">
-        <v>23.13469839645671</v>
+        <v>23.13198980149811</v>
       </c>
       <c r="D18">
-        <v>7.656427171681475</v>
+        <v>7.664063038645745</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.02988811835123</v>
+        <v>44.98774292461651</v>
       </c>
       <c r="G18">
-        <v>30.76809377139774</v>
+        <v>30.80770423280295</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>30.7008982921069</v>
       </c>
       <c r="I18">
-        <v>38.59873103450214</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>38.59674004973759</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.98985821644403</v>
+        <v>30.98737295462941</v>
       </c>
       <c r="C19">
-        <v>23.02536898045501</v>
+        <v>23.0227031782063</v>
       </c>
       <c r="D19">
-        <v>7.623424870139371</v>
+        <v>7.631020977771306</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.79495142437957</v>
+        <v>44.7530205760463</v>
       </c>
       <c r="G19">
-        <v>30.60615373489151</v>
+        <v>30.64555841445826</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>30.54546375525457</v>
       </c>
       <c r="I19">
-        <v>38.37775932280711</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>38.37581547565666</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.6639320962332</v>
+        <v>31.6612458994463</v>
       </c>
       <c r="C20">
-        <v>23.5158193221016</v>
+        <v>23.51295829631646</v>
       </c>
       <c r="D20">
-        <v>7.772021366617876</v>
+        <v>7.779793983526877</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.85279468643559</v>
+        <v>45.80989653011341</v>
       </c>
       <c r="G20">
-        <v>31.33538781331732</v>
+        <v>31.37571934106672</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>31.24589265133624</v>
       </c>
       <c r="I20">
-        <v>39.37350837629472</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>39.37134537015299</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.89056636564126</v>
+        <v>33.8871382905538</v>
       </c>
       <c r="C21">
-        <v>25.1404337772307</v>
+        <v>25.13686013309498</v>
       </c>
       <c r="D21">
-        <v>8.275195815205301</v>
+        <v>8.283515298752731</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.4285241778453</v>
+        <v>49.38230174979118</v>
       </c>
       <c r="G21">
-        <v>33.8013424456987</v>
+        <v>33.84480020634819</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33.62291724544436</v>
       </c>
       <c r="I21">
-        <v>42.76159504662789</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>42.75854101641396</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.32386940970273</v>
+        <v>35.31988974504325</v>
       </c>
       <c r="C22">
-        <v>26.19040211959342</v>
+        <v>26.18630471739574</v>
       </c>
       <c r="D22">
-        <v>8.610739036213809</v>
+        <v>8.619374665236936</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.79792078489878</v>
+        <v>51.7494293261073</v>
       </c>
       <c r="G22">
-        <v>35.43570276861721</v>
+        <v>35.48120910561092</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.2045394809522</v>
       </c>
       <c r="I22">
-        <v>45.03577213729263</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>45.03196863685007</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.56041030766433</v>
+        <v>34.55673247690689</v>
       </c>
       <c r="C23">
-        <v>25.63068150047383</v>
+        <v>25.62687018569477</v>
       </c>
       <c r="D23">
-        <v>8.430745974915412</v>
+        <v>8.439217231556166</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.5291035002905</v>
+        <v>50.4818351492872</v>
       </c>
       <c r="G23">
-        <v>34.56050087040483</v>
+        <v>34.60491368941977</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.35702345277535</v>
       </c>
       <c r="I23">
-        <v>43.8143543472639</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>43.81097043843823</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.62707299961851</v>
+        <v>31.62439805341377</v>
       </c>
       <c r="C24">
-        <v>23.48898545999353</v>
+        <v>23.48613533569042</v>
       </c>
       <c r="D24">
-        <v>7.76385425227389</v>
+        <v>7.771617337159278</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.79465671594242</v>
+        <v>45.75181187503205</v>
       </c>
       <c r="G24">
-        <v>31.29530534188931</v>
+        <v>31.33558591955047</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>31.20736131593816</v>
       </c>
       <c r="I24">
-        <v>39.31872617065696</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>39.31657568101873</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33038632784838</v>
+        <v>28.32860372036666</v>
       </c>
       <c r="C25">
-        <v>21.09580177890266</v>
+        <v>21.09382964286224</v>
       </c>
       <c r="D25">
-        <v>7.051632230709247</v>
+        <v>7.05849146522588</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.73807967739682</v>
+        <v>40.70017124255851</v>
       </c>
       <c r="G25">
-        <v>28.08891291676689</v>
+        <v>27.87048418410165</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>28.12410763147579</v>
       </c>
       <c r="I25">
-        <v>34.56337834882179</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>34.56212871638894</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.75631401448015</v>
+        <v>24.18193398373156</v>
       </c>
       <c r="C2">
-        <v>19.23515714775262</v>
+        <v>13.32257854557115</v>
       </c>
       <c r="D2">
-        <v>6.524106944582473</v>
+        <v>5.902381874720305</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.2757092988477</v>
+        <v>66.48811589679875</v>
       </c>
       <c r="G2">
-        <v>25.42267169892967</v>
+        <v>2.134180232298755</v>
       </c>
       <c r="H2">
-        <v>26.01721780351984</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>31.01963374867514</v>
+        <v>6.848779011394191</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.520694205792517</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.91070068258344</v>
+        <v>22.80444734194446</v>
       </c>
       <c r="C3">
-        <v>17.90580110257358</v>
+        <v>12.31194009094497</v>
       </c>
       <c r="D3">
-        <v>6.151551410307836</v>
+        <v>5.562505224773059</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.95411491772601</v>
+        <v>63.38697487333896</v>
       </c>
       <c r="G3">
-        <v>23.75783954037873</v>
+        <v>2.149797306771226</v>
       </c>
       <c r="H3">
-        <v>24.61857661352048</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28.55207789899231</v>
+        <v>6.828108697825594</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.482945275914314</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.72394101062123</v>
+        <v>21.95029225002137</v>
       </c>
       <c r="C4">
-        <v>17.0528798961046</v>
+        <v>11.66552763848665</v>
       </c>
       <c r="D4">
-        <v>5.916703183276306</v>
+        <v>5.348985741670287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.52593575139041</v>
+        <v>61.46722521288872</v>
       </c>
       <c r="G4">
-        <v>22.73099269192</v>
+        <v>2.159524665961596</v>
       </c>
       <c r="H4">
-        <v>23.77283034493641</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>26.99402916597415</v>
+        <v>6.817068060335973</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.46590397289069</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22646611703711</v>
+        <v>21.60035389577459</v>
       </c>
       <c r="C5">
-        <v>16.69579601190108</v>
+        <v>11.39536552758123</v>
       </c>
       <c r="D5">
-        <v>5.819367424593143</v>
+        <v>5.260748751157687</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.94319969665013</v>
+        <v>60.68119810028871</v>
       </c>
       <c r="G5">
-        <v>22.31132608160518</v>
+        <v>2.163529568102532</v>
       </c>
       <c r="H5">
-        <v>23.43140832018673</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>26.34707045736904</v>
+        <v>6.812957491185507</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.460440925890275</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14301287219272</v>
+        <v>21.54214364249849</v>
       </c>
       <c r="C6">
-        <v>16.63592053483531</v>
+        <v>11.35009156694086</v>
       </c>
       <c r="D6">
-        <v>5.803103999005769</v>
+        <v>5.246023086024448</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.84639477952433</v>
+        <v>60.55046433995458</v>
       </c>
       <c r="G6">
-        <v>22.24156887097503</v>
+        <v>2.164197217494096</v>
       </c>
       <c r="H6">
-        <v>23.37491114292468</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>26.23888349206068</v>
+        <v>6.812297673175925</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.459621515832274</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.717288504244</v>
+        <v>21.94557999989793</v>
       </c>
       <c r="C7">
-        <v>17.04810299489493</v>
+        <v>11.66191173784164</v>
       </c>
       <c r="D7">
-        <v>5.915397198570474</v>
+        <v>5.347800710673757</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.51807967913177</v>
+        <v>61.45663919643323</v>
       </c>
       <c r="G7">
-        <v>22.72533780066194</v>
+        <v>2.159578504150958</v>
       </c>
       <c r="H7">
-        <v>23.76821272225126</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>26.98535431074338</v>
+        <v>6.817011083739019</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.465824377499968</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.13080663115544</v>
+        <v>23.7088235330025</v>
       </c>
       <c r="C8">
-        <v>18.7842238860922</v>
+        <v>12.97932986928005</v>
       </c>
       <c r="D8">
-        <v>6.396843574164936</v>
+        <v>5.786183012226538</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.47567320178291</v>
+        <v>65.4221617421818</v>
       </c>
       <c r="G8">
-        <v>24.84951221655372</v>
+        <v>2.13954017111943</v>
       </c>
       <c r="H8">
-        <v>25.53219304852433</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>30.17692715827436</v>
+        <v>6.841292394269533</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.506366566963282</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.45964260185679</v>
+        <v>27.09584208978647</v>
       </c>
       <c r="C9">
-        <v>21.91335933071554</v>
+        <v>15.36974786043779</v>
       </c>
       <c r="D9">
-        <v>7.299371003478485</v>
+        <v>6.609108691365365</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.39905208422239</v>
+        <v>73.07550046145066</v>
       </c>
       <c r="G9">
-        <v>29.02005239749639</v>
+        <v>2.101026420438323</v>
       </c>
       <c r="H9">
-        <v>29.10503255889284</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>36.16361288792201</v>
+        <v>6.90336263152452</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.63754045864857</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.42892986137903</v>
+        <v>29.73754050215891</v>
       </c>
       <c r="C10">
-        <v>24.07220717194576</v>
+        <v>17.02840875587772</v>
       </c>
       <c r="D10">
-        <v>7.951288832476544</v>
+        <v>7.195348274912483</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.0277854297231</v>
+        <v>78.64282167689012</v>
       </c>
       <c r="G10">
-        <v>32.2173229351358</v>
+        <v>2.072687023019949</v>
       </c>
       <c r="H10">
-        <v>32.05471928129913</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>40.52159506293921</v>
+        <v>6.959962787813957</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.769987622704232</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.74433651636755</v>
+        <v>30.95970222254478</v>
       </c>
       <c r="C11">
-        <v>25.03245362503802</v>
+        <v>17.76734462096423</v>
       </c>
       <c r="D11">
-        <v>8.25057816565592</v>
+        <v>7.459511768276782</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.14931753113279</v>
+        <v>81.17349725805224</v>
       </c>
       <c r="G11">
-        <v>33.68374153535926</v>
+        <v>2.059641046199374</v>
       </c>
       <c r="H11">
-        <v>33.46750041980729</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>42.53624548183292</v>
+        <v>6.988694911594228</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.839261350968072</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.23853729321559</v>
+        <v>31.42042825312219</v>
       </c>
       <c r="C12">
-        <v>25.39392037800724</v>
+        <v>18.0454906363357</v>
       </c>
       <c r="D12">
-        <v>8.364962643571074</v>
+        <v>7.559348971085858</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.95787000105639</v>
+        <v>82.13281805830117</v>
       </c>
       <c r="G12">
-        <v>34.24269057634881</v>
+        <v>2.054663763210402</v>
       </c>
       <c r="H12">
-        <v>34.00706843427515</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>43.30873792110326</v>
+        <v>7.000065030376801</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.86690938974715</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.13225411149281</v>
+        <v>31.32128183410771</v>
       </c>
       <c r="C13">
-        <v>25.31614902596404</v>
+        <v>17.98565101678005</v>
       </c>
       <c r="D13">
-        <v>8.340267792402155</v>
+        <v>7.537852820267767</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.78344617676254</v>
+        <v>81.92614114506861</v>
       </c>
       <c r="G13">
-        <v>34.12211037896862</v>
+        <v>2.055737627339308</v>
       </c>
       <c r="H13">
-        <v>33.8906223756388</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.14184249583798</v>
+        <v>6.997593392138948</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.860889820033998</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.78506526580354</v>
+        <v>30.99764338171282</v>
       </c>
       <c r="C14">
-        <v>25.06222823585354</v>
+        <v>17.79025771989583</v>
       </c>
       <c r="D14">
-        <v>8.259962874607233</v>
+        <v>7.467728246682656</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.21571362612357</v>
+        <v>81.25239202826397</v>
       </c>
       <c r="G14">
-        <v>33.72963996948176</v>
+        <v>2.059232400624512</v>
       </c>
       <c r="H14">
-        <v>33.51178624509218</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>42.59957180936673</v>
+        <v>6.989620130996421</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.841506848837718</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.57193261008758</v>
+        <v>30.79915884029753</v>
       </c>
       <c r="C15">
-        <v>24.90644771554851</v>
+        <v>17.67037465040628</v>
       </c>
       <c r="D15">
-        <v>8.210934565540796</v>
+        <v>7.424755118281527</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.86873831737215</v>
+        <v>80.83987813121564</v>
       </c>
       <c r="G15">
-        <v>33.48978452261422</v>
+        <v>2.061367732565792</v>
       </c>
       <c r="H15">
-        <v>33.28040063165525</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>42.26884183186198</v>
+        <v>6.984802073721924</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.829822434934943</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.3423462516971</v>
+        <v>29.65733557604437</v>
       </c>
       <c r="C16">
-        <v>24.00909091730571</v>
+        <v>16.97984994647134</v>
       </c>
       <c r="D16">
-        <v>7.931835062882691</v>
+        <v>7.178047130043143</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.88968270359064</v>
+        <v>78.47749769890036</v>
       </c>
       <c r="G16">
-        <v>32.12187973712389</v>
+        <v>2.073535298048482</v>
       </c>
       <c r="H16">
-        <v>31.96291653429001</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>40.39096612070549</v>
+        <v>6.958150070205329</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.765651619581554</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.57971709468039</v>
+        <v>28.95234641202242</v>
       </c>
       <c r="C17">
-        <v>23.45361278763437</v>
+        <v>16.55261277197705</v>
       </c>
       <c r="D17">
-        <v>7.761709072051779</v>
+        <v>7.026159720292748</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.68142525229331</v>
+        <v>77.02854599713359</v>
       </c>
       <c r="G17">
-        <v>31.2869531715356</v>
+        <v>2.080950492579011</v>
       </c>
       <c r="H17">
-        <v>31.16067484561809</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>39.25021576293275</v>
+        <v>6.942604137040985</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.72867372830004</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.13766169010936</v>
+        <v>28.54497958343875</v>
       </c>
       <c r="C18">
-        <v>23.13198980149811</v>
+        <v>16.30536933772633</v>
       </c>
       <c r="D18">
-        <v>7.664063038645745</v>
+        <v>6.938548615096702</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.98774292461651</v>
+        <v>76.19486587790989</v>
       </c>
       <c r="G18">
-        <v>30.80770423280295</v>
+        <v>2.08520203899491</v>
       </c>
       <c r="H18">
-        <v>30.7008982921069</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>38.59674004973759</v>
+        <v>6.933939219949428</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.708246193658035</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.98737295462941</v>
+        <v>28.40671158213965</v>
       </c>
       <c r="C19">
-        <v>23.0227031782063</v>
+        <v>16.22138234318119</v>
       </c>
       <c r="D19">
-        <v>7.631020977771306</v>
+        <v>6.908837760572811</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.7530205760463</v>
+        <v>75.9125153155304</v>
       </c>
       <c r="G19">
-        <v>30.64555841445826</v>
+        <v>2.086639632406145</v>
       </c>
       <c r="H19">
-        <v>30.54546375525457</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>38.37581547565666</v>
+        <v>6.931051276056242</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.701470976743663</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.6612458994463</v>
+        <v>29.02758333662258</v>
       </c>
       <c r="C20">
-        <v>23.51295829631646</v>
+        <v>16.59824517958925</v>
       </c>
       <c r="D20">
-        <v>7.779793983526877</v>
+        <v>7.042353144404806</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.80989653011341</v>
+        <v>77.18281052274941</v>
       </c>
       <c r="G20">
-        <v>31.37571934106672</v>
+        <v>2.080162625956373</v>
       </c>
       <c r="H20">
-        <v>31.24589265133624</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>39.37134537015299</v>
+        <v>6.944229986847524</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.7325222390891</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.8871382905538</v>
+        <v>31.09275370061033</v>
       </c>
       <c r="C21">
-        <v>25.13686013309498</v>
+        <v>17.84768976402043</v>
       </c>
       <c r="D21">
-        <v>8.283515298752731</v>
+        <v>7.488329299412258</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.38230174979118</v>
+        <v>81.45024869332548</v>
       </c>
       <c r="G21">
-        <v>33.84480020634819</v>
+        <v>2.058207040059082</v>
       </c>
       <c r="H21">
-        <v>33.62291724544436</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>42.75854101641396</v>
+        <v>6.991948234247104</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.847160631547005</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.31988974504325</v>
+        <v>32.43081358800906</v>
       </c>
       <c r="C22">
-        <v>26.18630471739574</v>
+        <v>18.65487534611824</v>
       </c>
       <c r="D22">
-        <v>8.619374665236936</v>
+        <v>7.778770480310884</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.7494293261073</v>
+        <v>84.24607287954653</v>
       </c>
       <c r="G22">
-        <v>35.48120910561092</v>
+        <v>2.043632594017379</v>
       </c>
       <c r="H22">
-        <v>35.2045394809522</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>45.03196863685007</v>
+        <v>7.026027432131619</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.930406063732534</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.55673247690689</v>
+        <v>31.71744558821242</v>
       </c>
       <c r="C23">
-        <v>25.62687018569477</v>
+        <v>18.22470565401466</v>
       </c>
       <c r="D23">
-        <v>8.439217231556166</v>
+        <v>7.623783711680063</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.4818351492872</v>
+        <v>82.75272368230262</v>
       </c>
       <c r="G23">
-        <v>34.60491368941977</v>
+        <v>2.0514375916166</v>
       </c>
       <c r="H23">
-        <v>34.35702345277535</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>43.81097043843823</v>
+        <v>7.007550816192358</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.885169965364341</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.62439805341377</v>
+        <v>28.99357518752097</v>
       </c>
       <c r="C24">
-        <v>23.48613533569042</v>
+        <v>16.577619852731</v>
       </c>
       <c r="D24">
-        <v>7.771617337159278</v>
+        <v>7.035033009556512</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.75181187503205</v>
+        <v>77.11306967307287</v>
       </c>
       <c r="G24">
-        <v>31.33558591955047</v>
+        <v>2.080518855341596</v>
       </c>
       <c r="H24">
-        <v>31.20736131593816</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>39.31657568101873</v>
+        <v>6.943494095347569</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.730779745905219</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.32860372036666</v>
+        <v>26.1872105683113</v>
       </c>
       <c r="C25">
-        <v>21.09382964286224</v>
+        <v>14.74185529577867</v>
       </c>
       <c r="D25">
-        <v>7.05849146522588</v>
+        <v>6.390098334868813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.70017124255851</v>
+        <v>71.01718412160675</v>
       </c>
       <c r="G25">
-        <v>27.87048418410165</v>
+        <v>2.111410472681586</v>
       </c>
       <c r="H25">
-        <v>28.12410763147579</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>34.56212871638894</v>
+        <v>6.884816982290136</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.596079861061467</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -421,22 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.18193398373156</v>
+        <v>14.64848540962428</v>
       </c>
       <c r="C2">
-        <v>13.32257854557115</v>
+        <v>8.138298905464175</v>
       </c>
       <c r="D2">
-        <v>5.902381874720305</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>4.896075223912686</v>
       </c>
       <c r="F2">
-        <v>66.48811589679875</v>
+        <v>26.12356168118767</v>
       </c>
       <c r="G2">
-        <v>2.134180232298755</v>
+        <v>2.107945267351719</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -444,20 +441,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>6.848779011394191</v>
-      </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>6.520694205792517</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>12.77392597824924</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.53686690925387</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.80444734194446</v>
+        <v>13.6557666988261</v>
       </c>
       <c r="C3">
-        <v>12.31194009094497</v>
+        <v>7.581722392330895</v>
       </c>
       <c r="D3">
-        <v>5.562505224773059</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.911124624526315</v>
       </c>
       <c r="F3">
-        <v>63.38697487333896</v>
+        <v>25.53085506973938</v>
       </c>
       <c r="G3">
-        <v>2.149797306771226</v>
+        <v>2.115124267137227</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,20 +476,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>6.828108697825594</v>
-      </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>6.482945275914314</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>11.89612453281285</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.77426267362411</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.95029225002137</v>
+        <v>13.0732902771952</v>
       </c>
       <c r="C4">
-        <v>11.66552763848665</v>
+        <v>7.221546685522322</v>
       </c>
       <c r="D4">
-        <v>5.348985741670287</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.920476852812979</v>
       </c>
       <c r="F4">
-        <v>61.46722521288872</v>
+        <v>25.18621202742365</v>
       </c>
       <c r="G4">
-        <v>2.159524665961596</v>
+        <v>2.119653490999332</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -538,20 +511,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>6.817068060335973</v>
-      </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>6.46590397289069</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>11.3276066398143</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.9235766361537</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.60035389577459</v>
+        <v>12.83024031705162</v>
       </c>
       <c r="C5">
-        <v>11.39536552758123</v>
+        <v>7.070091513103503</v>
       </c>
       <c r="D5">
-        <v>5.260748751157687</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.92432030191515</v>
       </c>
       <c r="F5">
-        <v>60.68119810028871</v>
+        <v>25.05062267508134</v>
       </c>
       <c r="G5">
-        <v>2.163529568102532</v>
+        <v>2.121530793088188</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -585,20 +546,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>6.812957491185507</v>
-      </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>6.460440925890275</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>11.08843212714219</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.98533310522653</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54214364249849</v>
+        <v>12.7895437488283</v>
       </c>
       <c r="C6">
-        <v>11.35009156694086</v>
+        <v>7.044658539398238</v>
       </c>
       <c r="D6">
-        <v>5.246023086024448</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.92496057861806</v>
       </c>
       <c r="F6">
-        <v>60.55046433995458</v>
+        <v>25.02840136061868</v>
       </c>
       <c r="G6">
-        <v>2.164197217494096</v>
+        <v>2.121844457857796</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -632,20 +581,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>6.812297673175925</v>
-      </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>6.459621515832274</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>11.0482624876822</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.99564316097171</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94557999989793</v>
+        <v>13.07003521914872</v>
       </c>
       <c r="C7">
-        <v>11.66191173784164</v>
+        <v>7.219523117318246</v>
       </c>
       <c r="D7">
-        <v>5.347800710673757</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.920528550455367</v>
       </c>
       <c r="F7">
-        <v>61.45663919643323</v>
+        <v>25.18436376292009</v>
       </c>
       <c r="G7">
-        <v>2.159578504150958</v>
+        <v>2.119678679556812</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -679,20 +616,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>6.817011083739019</v>
-      </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6.465824377499968</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>11.32441150153527</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.92440579948769</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.7088235330025</v>
+        <v>14.30146355001611</v>
       </c>
       <c r="C8">
-        <v>12.97932986928005</v>
+        <v>7.950189658318385</v>
       </c>
       <c r="D8">
-        <v>5.786183012226538</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.901243614777009</v>
       </c>
       <c r="F8">
-        <v>65.4221617421818</v>
+        <v>25.91520249454138</v>
       </c>
       <c r="G8">
-        <v>2.13954017111943</v>
+        <v>2.110396099986988</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -726,20 +651,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>6.841292394269533</v>
-      </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>6.506366566963282</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>12.47734898537781</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.61799371594483</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09584208978647</v>
+        <v>16.67750226801122</v>
       </c>
       <c r="C9">
-        <v>15.36974786043779</v>
+        <v>9.238926917251341</v>
       </c>
       <c r="D9">
-        <v>6.609108691365365</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>4.864118296617308</v>
       </c>
       <c r="F9">
-        <v>73.07550046145066</v>
+        <v>27.50063310844689</v>
       </c>
       <c r="G9">
-        <v>2.101026420438323</v>
+        <v>2.093101751635859</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -773,20 +686,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>6.90336263152452</v>
-      </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>6.63754045864857</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>14.50714802812923</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.04456428638445</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.73754050215891</v>
+        <v>18.26478945738627</v>
       </c>
       <c r="C10">
-        <v>17.02840875587772</v>
+        <v>10.10117222035337</v>
       </c>
       <c r="D10">
-        <v>7.195348274912483</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>4.836985970499589</v>
       </c>
       <c r="F10">
-        <v>78.64282167689012</v>
+        <v>28.75718173965657</v>
       </c>
       <c r="G10">
-        <v>2.072687023019949</v>
+        <v>2.08086907440254</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -820,20 +721,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>6.959962787813957</v>
-      </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>6.769987622704232</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>15.86241275789387</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.63901439945518</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.95970222254478</v>
+        <v>18.95372221103197</v>
       </c>
       <c r="C11">
-        <v>17.76734462096423</v>
+        <v>10.47584128284889</v>
       </c>
       <c r="D11">
-        <v>7.459511768276782</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>4.824610589463283</v>
       </c>
       <c r="F11">
-        <v>81.17349725805224</v>
+        <v>29.34857785155115</v>
       </c>
       <c r="G11">
-        <v>2.059641046199374</v>
+        <v>2.075387385562817</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -867,20 +756,11 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>6.988694911594228</v>
-      </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>6.839261350968072</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>16.45056182930143</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.45775252199758</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42042825312219</v>
+        <v>19.20994842820039</v>
       </c>
       <c r="C12">
-        <v>18.0454906363357</v>
+        <v>10.61526148756721</v>
       </c>
       <c r="D12">
-        <v>7.559348971085858</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>4.819914183150123</v>
       </c>
       <c r="F12">
-        <v>82.13281805830117</v>
+        <v>29.57536780539445</v>
       </c>
       <c r="G12">
-        <v>2.054663763210402</v>
+        <v>2.073321779050328</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -914,20 +791,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>7.000065030376801</v>
-      </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>6.86690938974715</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>16.66929962896109</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.38956517397</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32128183410771</v>
+        <v>19.15497088848717</v>
       </c>
       <c r="C13">
-        <v>17.98565101678005</v>
+        <v>10.58534307290155</v>
       </c>
       <c r="D13">
-        <v>7.537852820267767</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>4.820926177020485</v>
       </c>
       <c r="F13">
-        <v>81.92614114506861</v>
+        <v>29.52639804885514</v>
       </c>
       <c r="G13">
-        <v>2.055737627339308</v>
+        <v>2.073766220667673</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -961,20 +826,11 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>6.997593392138948</v>
-      </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>6.860889820033998</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>16.62236597884454</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.40423055805682</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.99764338171282</v>
+        <v>18.97489480121734</v>
       </c>
       <c r="C14">
-        <v>17.79025771989583</v>
+        <v>10.48736033855663</v>
       </c>
       <c r="D14">
-        <v>7.467728246682656</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>4.824224447918415</v>
       </c>
       <c r="F14">
-        <v>81.25239202826397</v>
+        <v>29.36717901900708</v>
       </c>
       <c r="G14">
-        <v>2.059232400624512</v>
+        <v>2.075217253213444</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1008,20 +861,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>6.989620130996421</v>
-      </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>6.841506848837718</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>16.4686367307698</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.4521336912701</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.79915884029753</v>
+        <v>18.86398974395344</v>
       </c>
       <c r="C15">
-        <v>17.67037465040628</v>
+        <v>10.4270249733758</v>
       </c>
       <c r="D15">
-        <v>7.424755118281527</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>4.826243251810696</v>
       </c>
       <c r="F15">
-        <v>80.83987813121564</v>
+        <v>29.27002293291562</v>
       </c>
       <c r="G15">
-        <v>2.061367732565792</v>
+        <v>2.0761073250815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1055,20 +896,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>6.984802073721924</v>
-      </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>6.829822434934943</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>16.37395763555915</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.48153440015305</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.65733557604437</v>
+        <v>18.21910830805676</v>
       </c>
       <c r="C16">
-        <v>16.97984994647134</v>
+        <v>10.07633882712996</v>
       </c>
       <c r="D16">
-        <v>7.178047130043143</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>4.837793614842732</v>
       </c>
       <c r="F16">
-        <v>78.47749769890036</v>
+        <v>28.71893002573796</v>
       </c>
       <c r="G16">
-        <v>2.073535298048482</v>
+        <v>2.081228840254802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1102,20 +931,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>6.958150070205329</v>
-      </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>6.765651619581554</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>15.82341320814848</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.65092417009449</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95234641202242</v>
+        <v>17.81508179150637</v>
       </c>
       <c r="C17">
-        <v>16.55261277197705</v>
+        <v>9.856750593966591</v>
       </c>
       <c r="D17">
-        <v>7.026159720292748</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>4.844867226859417</v>
       </c>
       <c r="F17">
-        <v>77.02854599713359</v>
+        <v>28.38591203396966</v>
       </c>
       <c r="G17">
-        <v>2.080950492579011</v>
+        <v>2.084390790601027</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1149,20 +966,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>6.942604137040985</v>
-      </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>6.72867372830004</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>15.47847388764318</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.75565654467794</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.54497958343875</v>
+        <v>17.57957099237973</v>
       </c>
       <c r="C18">
-        <v>16.30536933772633</v>
+        <v>9.728791061878583</v>
       </c>
       <c r="D18">
-        <v>6.938548615096702</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>4.84893303628068</v>
       </c>
       <c r="F18">
-        <v>76.19486587790989</v>
+        <v>28.19623064662164</v>
       </c>
       <c r="G18">
-        <v>2.08520203899491</v>
+        <v>2.086217388084487</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1196,20 +1001,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>6.933939219949428</v>
-      </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>6.708246193658035</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>15.27739759007896</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.81619990202836</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.40671158213965</v>
+        <v>17.49929117119499</v>
       </c>
       <c r="C19">
-        <v>16.22138234318119</v>
+        <v>9.685179385623588</v>
       </c>
       <c r="D19">
-        <v>6.908837760572811</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>4.850309338953521</v>
       </c>
       <c r="F19">
-        <v>75.9125153155304</v>
+        <v>28.13232793627643</v>
       </c>
       <c r="G19">
-        <v>2.086639632406145</v>
+        <v>2.086837254914038</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1243,20 +1036,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>6.931051276056242</v>
-      </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>6.701470976743663</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>15.2088540781641</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.83675144661594</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.02758333662258</v>
+        <v>17.85841382801731</v>
       </c>
       <c r="C20">
-        <v>16.59824517958925</v>
+        <v>9.880297277785777</v>
       </c>
       <c r="D20">
-        <v>7.042353144404806</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>4.844114551311161</v>
       </c>
       <c r="F20">
-        <v>77.18281052274941</v>
+        <v>28.42116976646226</v>
       </c>
       <c r="G20">
-        <v>2.080162625956373</v>
+        <v>2.08405338732087</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1290,20 +1071,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>6.944229986847524</v>
-      </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>6.7325222390891</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>15.51546956944702</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.7444762239045</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.09275370061033</v>
+        <v>19.02791302821912</v>
       </c>
       <c r="C21">
-        <v>17.84768976402043</v>
+        <v>10.51620640825845</v>
       </c>
       <c r="D21">
-        <v>7.488329299412258</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>4.8232559847192</v>
       </c>
       <c r="F21">
-        <v>81.45024869332548</v>
+        <v>29.41386834696759</v>
       </c>
       <c r="G21">
-        <v>2.058207040059082</v>
+        <v>2.074790787928349</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1337,20 +1106,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>6.991948234247104</v>
-      </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>6.847160631547005</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>16.51389798128869</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.4380511718134</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.43081358800906</v>
+        <v>19.76515567251412</v>
       </c>
       <c r="C22">
-        <v>18.65487534611824</v>
+        <v>10.91751317679061</v>
       </c>
       <c r="D22">
-        <v>7.778770480310884</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>4.80956204152228</v>
       </c>
       <c r="F22">
-        <v>84.24607287954653</v>
+        <v>30.07922601620988</v>
       </c>
       <c r="G22">
-        <v>2.043632594017379</v>
+        <v>2.068795612785315</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1384,20 +1141,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>7.026027432131619</v>
-      </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>6.930406063732534</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>17.14327186610491</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.24041969763235</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.71744558821242</v>
+        <v>19.37411687602484</v>
       </c>
       <c r="C23">
-        <v>18.22470565401466</v>
+        <v>10.70461253092567</v>
       </c>
       <c r="D23">
-        <v>7.623783711680063</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>4.816878250413751</v>
       </c>
       <c r="F23">
-        <v>82.75272368230262</v>
+        <v>29.7225923222745</v>
       </c>
       <c r="G23">
-        <v>2.0514375916166</v>
+        <v>2.071990619682653</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1431,20 +1176,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>7.007550816192358</v>
-      </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>6.885169965364341</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>16.80944793146749</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.34566115661007</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.99357518752097</v>
+        <v>17.83883348479032</v>
       </c>
       <c r="C24">
-        <v>16.577619852731</v>
+        <v>9.869657169968072</v>
       </c>
       <c r="D24">
-        <v>7.035033009556512</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>4.844454838337939</v>
       </c>
       <c r="F24">
-        <v>77.11306967307287</v>
+        <v>28.40522421600465</v>
       </c>
       <c r="G24">
-        <v>2.080518855341596</v>
+        <v>2.084205899958758</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1478,20 +1211,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>6.943494095347569</v>
-      </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>6.730779745905219</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>15.49875244475694</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.74952981405727</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.1872105683113</v>
+        <v>16.06292546888203</v>
       </c>
       <c r="C25">
-        <v>14.74185529577867</v>
+        <v>8.905393353143412</v>
       </c>
       <c r="D25">
-        <v>6.390098334868813</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>4.874115710656045</v>
       </c>
       <c r="F25">
-        <v>71.01718412160675</v>
+        <v>27.05554120262421</v>
       </c>
       <c r="G25">
-        <v>2.111410472681586</v>
+        <v>2.097690989314826</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1525,20 +1246,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>6.884816982290136</v>
-      </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>6.596079861061467</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>13.98228962438715</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.19685894204212</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.64848540962428</v>
+        <v>12.74649233167628</v>
       </c>
       <c r="C2">
-        <v>8.138298905464175</v>
+        <v>5.280149767803496</v>
       </c>
       <c r="D2">
-        <v>4.896075223912686</v>
+        <v>6.404481587758474</v>
       </c>
       <c r="F2">
-        <v>26.12356168118767</v>
+        <v>32.22342665823589</v>
       </c>
       <c r="G2">
-        <v>2.107945267351719</v>
+        <v>3.678521223139385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.77392597824924</v>
+        <v>12.14800977874676</v>
       </c>
       <c r="N2">
-        <v>13.53686690925387</v>
+        <v>20.27594957129025</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.6557666988261</v>
+        <v>12.50336651230864</v>
       </c>
       <c r="C3">
-        <v>7.581722392330895</v>
+        <v>5.080188451177959</v>
       </c>
       <c r="D3">
-        <v>4.911124624526315</v>
+        <v>6.402417816100481</v>
       </c>
       <c r="F3">
-        <v>25.53085506973938</v>
+        <v>32.19741226299392</v>
       </c>
       <c r="G3">
-        <v>2.115124267137227</v>
+        <v>3.681109996171884</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.89612453281285</v>
+        <v>11.98651058806879</v>
       </c>
       <c r="N3">
-        <v>13.77426267362411</v>
+        <v>20.34288248931044</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0732902771952</v>
+        <v>12.35525243798511</v>
       </c>
       <c r="C4">
-        <v>7.221546685522322</v>
+        <v>4.95477656679498</v>
       </c>
       <c r="D4">
-        <v>4.920476852812979</v>
+        <v>6.401172251513683</v>
       </c>
       <c r="F4">
-        <v>25.18621202742365</v>
+        <v>32.19004152305256</v>
       </c>
       <c r="G4">
-        <v>2.119653490999332</v>
+        <v>3.682782756929701</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.3276066398143</v>
+        <v>11.88942801688785</v>
       </c>
       <c r="N4">
-        <v>13.9235766361537</v>
+        <v>20.38596737323946</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83024031705162</v>
+        <v>12.29527813414207</v>
       </c>
       <c r="C5">
-        <v>7.070091513103503</v>
+        <v>4.903096272069977</v>
       </c>
       <c r="D5">
-        <v>4.92432030191515</v>
+        <v>6.400670362410817</v>
       </c>
       <c r="F5">
-        <v>25.05062267508134</v>
+        <v>32.18920083301195</v>
       </c>
       <c r="G5">
-        <v>2.121530793088188</v>
+        <v>3.683485423341819</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.08843212714219</v>
+        <v>11.85043798169526</v>
       </c>
       <c r="N5">
-        <v>13.98533310522653</v>
+        <v>20.40402575848976</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.7895437488283</v>
+        <v>12.28534524851131</v>
       </c>
       <c r="C6">
-        <v>7.044658539398238</v>
+        <v>4.894482892634818</v>
       </c>
       <c r="D6">
-        <v>4.92496057861806</v>
+        <v>6.400587375285747</v>
       </c>
       <c r="F6">
-        <v>25.02840136061868</v>
+        <v>32.18919183533412</v>
       </c>
       <c r="G6">
-        <v>2.121844457857796</v>
+        <v>3.683603371156198</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.0482624876822</v>
+        <v>11.84399967465767</v>
       </c>
       <c r="N6">
-        <v>13.99564316097171</v>
+        <v>20.40705462784966</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.07003521914872</v>
+        <v>12.35444193168133</v>
       </c>
       <c r="C7">
-        <v>7.219523117318246</v>
+        <v>4.954081788676127</v>
       </c>
       <c r="D7">
-        <v>4.920528550455367</v>
+        <v>6.40116545950067</v>
       </c>
       <c r="F7">
-        <v>25.18436376292009</v>
+        <v>32.19002142908585</v>
       </c>
       <c r="G7">
-        <v>2.119678679556812</v>
+        <v>3.682792148201606</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.32441150153527</v>
+        <v>11.88889980381079</v>
       </c>
       <c r="N7">
-        <v>13.92440579948769</v>
+        <v>20.38620888519992</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.30146355001611</v>
+        <v>12.66247433428772</v>
       </c>
       <c r="C8">
-        <v>7.950189658318385</v>
+        <v>5.211800470866508</v>
       </c>
       <c r="D8">
-        <v>4.901243614777009</v>
+        <v>6.403765668723506</v>
       </c>
       <c r="F8">
-        <v>25.91520249454138</v>
+        <v>32.21267192782567</v>
       </c>
       <c r="G8">
-        <v>2.110396099986988</v>
+        <v>3.679396597395532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.47734898537781</v>
+        <v>12.09192328107408</v>
       </c>
       <c r="N8">
-        <v>13.61799371594483</v>
+        <v>20.29861613568332</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.67750226801122</v>
+        <v>13.27187467136383</v>
       </c>
       <c r="C9">
-        <v>9.238926917251341</v>
+        <v>5.692821007805753</v>
       </c>
       <c r="D9">
-        <v>4.864118296617308</v>
+        <v>6.409025171864348</v>
       </c>
       <c r="F9">
-        <v>27.50063310844689</v>
+        <v>32.32527725540884</v>
       </c>
       <c r="G9">
-        <v>2.093101751635859</v>
+        <v>3.673395213336245</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.50714802812923</v>
+        <v>12.50434025881685</v>
       </c>
       <c r="N9">
-        <v>13.04456428638445</v>
+        <v>20.14256821035945</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.26478945738627</v>
+        <v>13.7177758810058</v>
       </c>
       <c r="C10">
-        <v>10.10117222035337</v>
+        <v>6.027328777404513</v>
       </c>
       <c r="D10">
-        <v>4.836985970499589</v>
+        <v>6.41297315659182</v>
       </c>
       <c r="F10">
-        <v>28.75718173965657</v>
+        <v>32.44938002435494</v>
       </c>
       <c r="G10">
-        <v>2.08086907440254</v>
+        <v>3.669382181780044</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.86241275789387</v>
+        <v>12.81307486890999</v>
       </c>
       <c r="N10">
-        <v>12.63901439945518</v>
+        <v>20.03743077773014</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.95372221103197</v>
+        <v>13.91921171054963</v>
       </c>
       <c r="C11">
-        <v>10.47584128284889</v>
+        <v>6.174704356893296</v>
       </c>
       <c r="D11">
-        <v>4.824610589463283</v>
+        <v>6.414784519428197</v>
       </c>
       <c r="F11">
-        <v>29.34857785155115</v>
+        <v>32.51474137336991</v>
       </c>
       <c r="G11">
-        <v>2.075387385562817</v>
+        <v>3.667641616755994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.45056182930143</v>
+        <v>12.95414167053173</v>
       </c>
       <c r="N11">
-        <v>12.45775252199758</v>
+        <v>19.99165082407817</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.20994842820039</v>
+        <v>13.99520792756699</v>
       </c>
       <c r="C12">
-        <v>10.61526148756721</v>
+        <v>6.229773830997799</v>
       </c>
       <c r="D12">
-        <v>4.819914183150123</v>
+        <v>6.415472408404242</v>
       </c>
       <c r="F12">
-        <v>29.57536780539445</v>
+        <v>32.54076294096668</v>
       </c>
       <c r="G12">
-        <v>2.073321779050328</v>
+        <v>3.666994657452095</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.66929962896109</v>
+        <v>13.00759783976138</v>
       </c>
       <c r="N12">
-        <v>12.38956517397</v>
+        <v>19.97460849664718</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.15497088848717</v>
+        <v>13.97885461815522</v>
       </c>
       <c r="C13">
-        <v>10.58534307290155</v>
+        <v>6.21794719179912</v>
       </c>
       <c r="D13">
-        <v>4.820926177020485</v>
+        <v>6.415324175737188</v>
       </c>
       <c r="F13">
-        <v>29.52639804885514</v>
+        <v>32.53510239838619</v>
       </c>
       <c r="G13">
-        <v>2.073766220667673</v>
+        <v>3.667133452161694</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.62236597884454</v>
+        <v>12.99608425934105</v>
       </c>
       <c r="N13">
-        <v>12.40423055805682</v>
+        <v>19.97826582519238</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.97489480121734</v>
+        <v>13.92547008800935</v>
       </c>
       <c r="C14">
-        <v>10.48736033855663</v>
+        <v>6.179250014073987</v>
       </c>
       <c r="D14">
-        <v>4.824224447918415</v>
+        <v>6.414841074501785</v>
       </c>
       <c r="F14">
-        <v>29.36717901900708</v>
+        <v>32.5168567820085</v>
       </c>
       <c r="G14">
-        <v>2.075217253213444</v>
+        <v>3.667588147796207</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.4686367307698</v>
+        <v>12.95853909018256</v>
       </c>
       <c r="N14">
-        <v>12.4521336912701</v>
+        <v>19.99024286346455</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.86398974395344</v>
+        <v>13.89273131883484</v>
       </c>
       <c r="C15">
-        <v>10.4270249733758</v>
+        <v>6.155449358076529</v>
       </c>
       <c r="D15">
-        <v>4.826243251810696</v>
+        <v>6.41454540961732</v>
       </c>
       <c r="F15">
-        <v>29.27002293291562</v>
+        <v>32.50584596020614</v>
       </c>
       <c r="G15">
-        <v>2.0761073250815</v>
+        <v>3.667868242989506</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.37395763555915</v>
+        <v>12.93554491030173</v>
       </c>
       <c r="N15">
-        <v>12.48153440015305</v>
+        <v>19.99761734759533</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.21910830805676</v>
+        <v>13.70457625850656</v>
       </c>
       <c r="C16">
-        <v>10.07633882712996</v>
+        <v>6.017596626442176</v>
       </c>
       <c r="D16">
-        <v>4.837793614842732</v>
+        <v>6.412855068289232</v>
       </c>
       <c r="F16">
-        <v>28.71893002573796</v>
+        <v>32.44528690516127</v>
       </c>
       <c r="G16">
-        <v>2.081228840254802</v>
+        <v>3.669497636260655</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.82341320814848</v>
+        <v>12.80386384745011</v>
       </c>
       <c r="N16">
-        <v>12.65092417009449</v>
+        <v>20.04046373128578</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.81508179150637</v>
+        <v>13.58873004119262</v>
       </c>
       <c r="C17">
-        <v>9.856750593966591</v>
+        <v>5.931763612969654</v>
       </c>
       <c r="D17">
-        <v>4.844867226859417</v>
+        <v>6.411821865024062</v>
       </c>
       <c r="F17">
-        <v>28.38591203396966</v>
+        <v>32.41041042795882</v>
       </c>
       <c r="G17">
-        <v>2.084390790601027</v>
+        <v>3.670518935681863</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.47847388764318</v>
+        <v>12.72320356711413</v>
       </c>
       <c r="N17">
-        <v>12.75565654467794</v>
+        <v>20.06727239502406</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.57957099237973</v>
+        <v>13.52197052072903</v>
       </c>
       <c r="C18">
-        <v>9.728791061878583</v>
+        <v>5.881946030736785</v>
       </c>
       <c r="D18">
-        <v>4.84893303628068</v>
+        <v>6.411229058443679</v>
       </c>
       <c r="F18">
-        <v>28.19623064662164</v>
+        <v>32.39118943090179</v>
       </c>
       <c r="G18">
-        <v>2.086217388084487</v>
+        <v>3.671114363004392</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.27739759007896</v>
+        <v>12.67687150117901</v>
       </c>
       <c r="N18">
-        <v>12.81619990202836</v>
+        <v>20.08288481042872</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49929117119499</v>
+        <v>13.49934746966032</v>
       </c>
       <c r="C19">
-        <v>9.685179385623588</v>
+        <v>5.865003192730474</v>
       </c>
       <c r="D19">
-        <v>4.850309338953521</v>
+        <v>6.411028603568289</v>
       </c>
       <c r="F19">
-        <v>28.13232793627643</v>
+        <v>32.38482591327666</v>
       </c>
       <c r="G19">
-        <v>2.086837254914038</v>
+        <v>3.671317340978116</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.2088540781641</v>
+        <v>12.66119644755888</v>
       </c>
       <c r="N19">
-        <v>12.83675144661594</v>
+        <v>20.08820404396398</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.85841382801731</v>
+        <v>13.60107589883697</v>
       </c>
       <c r="C20">
-        <v>9.880297277785777</v>
+        <v>5.940947499400581</v>
       </c>
       <c r="D20">
-        <v>4.844114551311161</v>
+        <v>6.411931701503584</v>
       </c>
       <c r="F20">
-        <v>28.42116976646226</v>
+        <v>32.41403631922446</v>
       </c>
       <c r="G20">
-        <v>2.08405338732087</v>
+        <v>3.670409388820332</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.51546956944702</v>
+        <v>12.73178399869022</v>
       </c>
       <c r="N20">
-        <v>12.7444762239045</v>
+        <v>20.06439862138877</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.02791302821912</v>
+        <v>13.9411587267265</v>
       </c>
       <c r="C21">
-        <v>10.51620640825845</v>
+        <v>6.190636714474242</v>
       </c>
       <c r="D21">
-        <v>4.8232559847192</v>
+        <v>6.414982921682173</v>
       </c>
       <c r="F21">
-        <v>29.41386834696759</v>
+        <v>32.52218156625808</v>
       </c>
       <c r="G21">
-        <v>2.074790787928349</v>
+        <v>3.667454263306846</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.51389798128869</v>
+        <v>12.96956641591261</v>
       </c>
       <c r="N21">
-        <v>12.4380511718134</v>
+        <v>19.98671695722355</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.76515567251412</v>
+        <v>14.1617375932124</v>
       </c>
       <c r="C22">
-        <v>10.91751317679061</v>
+        <v>6.349500368377536</v>
       </c>
       <c r="D22">
-        <v>4.80956204152228</v>
+        <v>6.41698841188138</v>
       </c>
       <c r="F22">
-        <v>30.07922601620988</v>
+        <v>32.60026107084333</v>
       </c>
       <c r="G22">
-        <v>2.068795612785315</v>
+        <v>3.665593735869086</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.14327186610491</v>
+        <v>13.1251646994357</v>
       </c>
       <c r="N22">
-        <v>12.24041969763235</v>
+        <v>19.93765811799199</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.37411687602484</v>
+        <v>14.04419027185465</v>
       </c>
       <c r="C23">
-        <v>10.70461253092567</v>
+        <v>6.265121969469338</v>
       </c>
       <c r="D23">
-        <v>4.816878250413751</v>
+        <v>6.415917087859077</v>
       </c>
       <c r="F23">
-        <v>29.7225923222745</v>
+        <v>32.55791523598428</v>
       </c>
       <c r="G23">
-        <v>2.071990619682653</v>
+        <v>3.666580276087686</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.80944793146749</v>
+        <v>13.04211815714677</v>
       </c>
       <c r="N23">
-        <v>12.34566115661007</v>
+        <v>19.963685512129</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.83883348479032</v>
+        <v>13.59549482246432</v>
       </c>
       <c r="C24">
-        <v>9.869657169968072</v>
+        <v>5.936796927746651</v>
       </c>
       <c r="D24">
-        <v>4.844454838337939</v>
+        <v>6.411882040660441</v>
       </c>
       <c r="F24">
-        <v>28.40522421600465</v>
+        <v>32.41239446769249</v>
       </c>
       <c r="G24">
-        <v>2.084205899958758</v>
+        <v>3.670458889194143</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.49875244475694</v>
+        <v>12.72790465508316</v>
       </c>
       <c r="N24">
-        <v>12.74952981405727</v>
+        <v>20.06569723208911</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06292546888203</v>
+        <v>13.10697851477175</v>
       </c>
       <c r="C25">
-        <v>8.905393353143412</v>
+        <v>5.565749544275298</v>
       </c>
       <c r="D25">
-        <v>4.874115710656045</v>
+        <v>6.407586618059033</v>
       </c>
       <c r="F25">
-        <v>27.05554120262421</v>
+        <v>32.2875277179829</v>
       </c>
       <c r="G25">
-        <v>2.097690989314826</v>
+        <v>3.674948848218013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.98228962438715</v>
+        <v>12.39154843797377</v>
       </c>
       <c r="N25">
-        <v>13.19685894204212</v>
+        <v>20.18310787214158</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.74649233167628</v>
+        <v>14.64848540962437</v>
       </c>
       <c r="C2">
-        <v>5.280149767803496</v>
+        <v>8.138298905464126</v>
       </c>
       <c r="D2">
-        <v>6.404481587758474</v>
+        <v>4.896075223912685</v>
       </c>
       <c r="F2">
-        <v>32.22342665823589</v>
+        <v>26.12356168118736</v>
       </c>
       <c r="G2">
-        <v>3.678521223139385</v>
+        <v>2.107945267351319</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.14800977874676</v>
+        <v>12.7739259782493</v>
       </c>
       <c r="N2">
-        <v>20.27594957129025</v>
+        <v>13.5368669092537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.50336651230864</v>
+        <v>13.65576669882612</v>
       </c>
       <c r="C3">
-        <v>5.080188451177959</v>
+        <v>7.581722392331026</v>
       </c>
       <c r="D3">
-        <v>6.402417816100481</v>
+        <v>4.911124624526314</v>
       </c>
       <c r="F3">
-        <v>32.19741226299392</v>
+        <v>25.53085506973949</v>
       </c>
       <c r="G3">
-        <v>3.681109996171884</v>
+        <v>2.115124267137494</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.98651058806879</v>
+        <v>11.89612453281283</v>
       </c>
       <c r="N3">
-        <v>20.34288248931044</v>
+        <v>13.77426267362415</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35525243798511</v>
+        <v>13.07329027719516</v>
       </c>
       <c r="C4">
-        <v>4.95477656679498</v>
+        <v>7.221546685522126</v>
       </c>
       <c r="D4">
-        <v>6.401172251513683</v>
+        <v>4.920476852812918</v>
       </c>
       <c r="F4">
-        <v>32.19004152305256</v>
+        <v>25.18621202742334</v>
       </c>
       <c r="G4">
-        <v>3.682782756929701</v>
+        <v>2.119653490999067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.88942801688785</v>
+        <v>11.32760663981429</v>
       </c>
       <c r="N4">
-        <v>20.38596737323946</v>
+        <v>13.92357663615352</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.29527813414207</v>
+        <v>12.83024031705161</v>
       </c>
       <c r="C5">
-        <v>4.903096272069977</v>
+        <v>7.070091513103549</v>
       </c>
       <c r="D5">
-        <v>6.400670362410817</v>
+        <v>4.92432030191515</v>
       </c>
       <c r="F5">
-        <v>32.18920083301195</v>
+        <v>25.05062267508115</v>
       </c>
       <c r="G5">
-        <v>3.683485423341819</v>
+        <v>2.121530793088588</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.85043798169526</v>
+        <v>11.08843212714223</v>
       </c>
       <c r="N5">
-        <v>20.40402575848976</v>
+        <v>13.98533310522646</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.28534524851131</v>
+        <v>12.78954374882831</v>
       </c>
       <c r="C6">
-        <v>4.894482892634818</v>
+        <v>7.044658539398245</v>
       </c>
       <c r="D6">
-        <v>6.400587375285747</v>
+        <v>4.924960578618052</v>
       </c>
       <c r="F6">
-        <v>32.18919183533412</v>
+        <v>25.02840136061858</v>
       </c>
       <c r="G6">
-        <v>3.683603371156198</v>
+        <v>2.121844457857661</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.84399967465767</v>
+        <v>11.04826248768225</v>
       </c>
       <c r="N6">
-        <v>20.40705462784966</v>
+        <v>13.99564316097162</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35444193168133</v>
+        <v>13.07003521914865</v>
       </c>
       <c r="C7">
-        <v>4.954081788676127</v>
+        <v>7.219523117318271</v>
       </c>
       <c r="D7">
-        <v>6.40116545950067</v>
+        <v>4.920528550455426</v>
       </c>
       <c r="F7">
-        <v>32.19002142908585</v>
+        <v>25.18436376291987</v>
       </c>
       <c r="G7">
-        <v>3.682792148201606</v>
+        <v>2.11967867955681</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.88889980381079</v>
+        <v>11.32441150153532</v>
       </c>
       <c r="N7">
-        <v>20.38620888519992</v>
+        <v>13.92440579948768</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.66247433428772</v>
+        <v>14.30146355001609</v>
       </c>
       <c r="C8">
-        <v>5.211800470866508</v>
+        <v>7.950189658318385</v>
       </c>
       <c r="D8">
-        <v>6.403765668723506</v>
+        <v>4.901243614777075</v>
       </c>
       <c r="F8">
-        <v>32.21267192782567</v>
+        <v>25.91520249454155</v>
       </c>
       <c r="G8">
-        <v>3.679396597395532</v>
+        <v>2.110396099986988</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.09192328107408</v>
+        <v>12.47734898537779</v>
       </c>
       <c r="N8">
-        <v>20.29861613568332</v>
+        <v>13.61799371594491</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.27187467136383</v>
+        <v>16.67750226801124</v>
       </c>
       <c r="C9">
-        <v>5.692821007805753</v>
+        <v>9.238926917251099</v>
       </c>
       <c r="D9">
-        <v>6.409025171864348</v>
+        <v>4.864118296617101</v>
       </c>
       <c r="F9">
-        <v>32.32527725540884</v>
+        <v>27.50063310844708</v>
       </c>
       <c r="G9">
-        <v>3.673395213336245</v>
+        <v>2.093101751635729</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.50434025881685</v>
+        <v>14.50714802812919</v>
       </c>
       <c r="N9">
-        <v>20.14256821035945</v>
+        <v>13.04456428638455</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.7177758810058</v>
+        <v>18.26478945738632</v>
       </c>
       <c r="C10">
-        <v>6.027328777404513</v>
+        <v>10.10117222035353</v>
       </c>
       <c r="D10">
-        <v>6.41297315659182</v>
+        <v>4.836985970499331</v>
       </c>
       <c r="F10">
-        <v>32.44938002435494</v>
+        <v>28.75718173965655</v>
       </c>
       <c r="G10">
-        <v>3.669382181780044</v>
+        <v>2.08086907440254</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.81307486890999</v>
+        <v>15.86241275789393</v>
       </c>
       <c r="N10">
-        <v>20.03743077773014</v>
+        <v>12.63901439945508</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.91921171054963</v>
+        <v>18.95372221103194</v>
       </c>
       <c r="C11">
-        <v>6.174704356893296</v>
+        <v>10.47584128284895</v>
       </c>
       <c r="D11">
-        <v>6.414784519428197</v>
+        <v>4.824610589463276</v>
       </c>
       <c r="F11">
-        <v>32.51474137336991</v>
+        <v>29.34857785155122</v>
       </c>
       <c r="G11">
-        <v>3.667641616755994</v>
+        <v>2.075387385562952</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.95414167053173</v>
+        <v>16.45056182930143</v>
       </c>
       <c r="N11">
-        <v>19.99165082407817</v>
+        <v>12.45775252199756</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.99520792756699</v>
+        <v>19.20994842820028</v>
       </c>
       <c r="C12">
-        <v>6.229773830997799</v>
+        <v>10.6152614875672</v>
       </c>
       <c r="D12">
-        <v>6.415472408404242</v>
+        <v>4.81991418315019</v>
       </c>
       <c r="F12">
-        <v>32.54076294096668</v>
+        <v>29.57536780539455</v>
       </c>
       <c r="G12">
-        <v>3.666994657452095</v>
+        <v>2.073321779050193</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.00759783976138</v>
+        <v>16.66929962896099</v>
       </c>
       <c r="N12">
-        <v>19.97460849664718</v>
+        <v>12.38956517397021</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.97885461815522</v>
+        <v>19.15497088848716</v>
       </c>
       <c r="C13">
-        <v>6.21794719179912</v>
+        <v>10.58534307290143</v>
       </c>
       <c r="D13">
-        <v>6.415324175737188</v>
+        <v>4.82092617702048</v>
       </c>
       <c r="F13">
-        <v>32.53510239838619</v>
+        <v>29.52639804885524</v>
       </c>
       <c r="G13">
-        <v>3.667133452161694</v>
+        <v>2.073766220667809</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.99608425934105</v>
+        <v>16.6223659788445</v>
       </c>
       <c r="N13">
-        <v>19.97826582519238</v>
+        <v>12.40423055805686</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.92547008800935</v>
+        <v>18.97489480121739</v>
       </c>
       <c r="C14">
-        <v>6.179250014073987</v>
+        <v>10.48736033855657</v>
       </c>
       <c r="D14">
-        <v>6.414841074501785</v>
+        <v>4.82422444791829</v>
       </c>
       <c r="F14">
-        <v>32.5168567820085</v>
+        <v>29.36717901900699</v>
       </c>
       <c r="G14">
-        <v>3.667588147796207</v>
+        <v>2.07521725321358</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.95853909018256</v>
+        <v>16.46863673076985</v>
       </c>
       <c r="N14">
-        <v>19.99024286346455</v>
+        <v>12.45213369126997</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.89273131883484</v>
+        <v>18.86398974395347</v>
       </c>
       <c r="C15">
-        <v>6.155449358076529</v>
+        <v>10.42702497337576</v>
       </c>
       <c r="D15">
-        <v>6.41454540961732</v>
+        <v>4.826243251810961</v>
       </c>
       <c r="F15">
-        <v>32.50584596020614</v>
+        <v>29.27002293291556</v>
       </c>
       <c r="G15">
-        <v>3.667868242989506</v>
+        <v>2.0761073250815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.93554491030173</v>
+        <v>16.37395763555912</v>
       </c>
       <c r="N15">
-        <v>19.99761734759533</v>
+        <v>12.4815344001531</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.70457625850656</v>
+        <v>18.21910830805679</v>
       </c>
       <c r="C16">
-        <v>6.017596626442176</v>
+        <v>10.07633882713001</v>
       </c>
       <c r="D16">
-        <v>6.412855068289232</v>
+        <v>4.837793614842797</v>
       </c>
       <c r="F16">
-        <v>32.44528690516127</v>
+        <v>28.71893002573788</v>
       </c>
       <c r="G16">
-        <v>3.669497636260655</v>
+        <v>2.081228840254941</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.80386384745011</v>
+        <v>15.82341320814855</v>
       </c>
       <c r="N16">
-        <v>20.04046373128578</v>
+        <v>12.65092417009448</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.58873004119262</v>
+        <v>17.81508179150633</v>
       </c>
       <c r="C17">
-        <v>5.931763612969654</v>
+        <v>9.85675059396659</v>
       </c>
       <c r="D17">
-        <v>6.411821865024062</v>
+        <v>4.844867226859406</v>
       </c>
       <c r="F17">
-        <v>32.41041042795882</v>
+        <v>28.38591203396976</v>
       </c>
       <c r="G17">
-        <v>3.670518935681863</v>
+        <v>2.084390790601158</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72320356711413</v>
+        <v>15.47847388764314</v>
       </c>
       <c r="N17">
-        <v>20.06727239502406</v>
+        <v>12.75565654467803</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.52197052072903</v>
+        <v>17.57957099237975</v>
       </c>
       <c r="C18">
-        <v>5.881946030736785</v>
+        <v>9.72879106187869</v>
       </c>
       <c r="D18">
-        <v>6.411229058443679</v>
+        <v>4.84893303628061</v>
       </c>
       <c r="F18">
-        <v>32.39118943090179</v>
+        <v>28.19623064662159</v>
       </c>
       <c r="G18">
-        <v>3.671114363004392</v>
+        <v>2.08621738808449</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.67687150117901</v>
+        <v>15.27739759007899</v>
       </c>
       <c r="N18">
-        <v>20.08288481042872</v>
+        <v>12.81619990202833</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.49934746966032</v>
+        <v>17.49929117119502</v>
       </c>
       <c r="C19">
-        <v>5.865003192730474</v>
+        <v>9.685179385623687</v>
       </c>
       <c r="D19">
-        <v>6.411028603568289</v>
+        <v>4.85030933895364</v>
       </c>
       <c r="F19">
-        <v>32.38482591327666</v>
+        <v>28.13232793627639</v>
       </c>
       <c r="G19">
-        <v>3.671317340978116</v>
+        <v>2.086837254913904</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.66119644755888</v>
+        <v>15.20885407816414</v>
       </c>
       <c r="N19">
-        <v>20.08820404396398</v>
+        <v>12.83675144661597</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.60107589883697</v>
+        <v>17.85841382801725</v>
       </c>
       <c r="C20">
-        <v>5.940947499400581</v>
+        <v>9.880297277785653</v>
       </c>
       <c r="D20">
-        <v>6.411931701503584</v>
+        <v>4.844114551311296</v>
       </c>
       <c r="F20">
-        <v>32.41403631922446</v>
+        <v>28.42116976646235</v>
       </c>
       <c r="G20">
-        <v>3.670409388820332</v>
+        <v>2.084053387320739</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.73178399869022</v>
+        <v>15.51546956944691</v>
       </c>
       <c r="N20">
-        <v>20.06439862138877</v>
+        <v>12.74447622390456</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.9411587267265</v>
+        <v>19.0279130282191</v>
       </c>
       <c r="C21">
-        <v>6.190636714474242</v>
+        <v>10.51620640825852</v>
       </c>
       <c r="D21">
-        <v>6.414982921682173</v>
+        <v>4.823255984719136</v>
       </c>
       <c r="F21">
-        <v>32.52218156625808</v>
+        <v>29.41386834696758</v>
       </c>
       <c r="G21">
-        <v>3.667454263306846</v>
+        <v>2.074790787928348</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.96956641591261</v>
+        <v>16.51389798128868</v>
       </c>
       <c r="N21">
-        <v>19.98671695722355</v>
+        <v>12.43805117181342</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.1617375932124</v>
+        <v>19.76515567251397</v>
       </c>
       <c r="C22">
-        <v>6.349500368377536</v>
+        <v>10.91751317679077</v>
       </c>
       <c r="D22">
-        <v>6.41698841188138</v>
+        <v>4.809562041522349</v>
       </c>
       <c r="F22">
-        <v>32.60026107084333</v>
+        <v>30.07922601620979</v>
       </c>
       <c r="G22">
-        <v>3.665593735869086</v>
+        <v>2.06879561278545</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.1251646994357</v>
+        <v>17.14327186610486</v>
       </c>
       <c r="N22">
-        <v>19.93765811799199</v>
+        <v>12.24041969763237</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.04419027185465</v>
+        <v>19.37411687602489</v>
       </c>
       <c r="C23">
-        <v>6.265121969469338</v>
+        <v>10.70461253092578</v>
       </c>
       <c r="D23">
-        <v>6.415917087859077</v>
+        <v>4.816878250413623</v>
       </c>
       <c r="F23">
-        <v>32.55791523598428</v>
+        <v>29.72259232227451</v>
       </c>
       <c r="G23">
-        <v>3.666580276087686</v>
+        <v>2.071990619682652</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.04211815714677</v>
+        <v>16.80944793146759</v>
       </c>
       <c r="N23">
-        <v>19.963685512129</v>
+        <v>12.34566115660993</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.59549482246432</v>
+        <v>17.83883348479031</v>
       </c>
       <c r="C24">
-        <v>5.936796927746651</v>
+        <v>9.869657169968118</v>
       </c>
       <c r="D24">
-        <v>6.411882040660441</v>
+        <v>4.844454838337811</v>
       </c>
       <c r="F24">
-        <v>32.41239446769249</v>
+        <v>28.40522421600465</v>
       </c>
       <c r="G24">
-        <v>3.670458889194143</v>
+        <v>2.08420589995889</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.72790465508316</v>
+        <v>15.49875244475694</v>
       </c>
       <c r="N24">
-        <v>20.06569723208911</v>
+        <v>12.74952981405727</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.10697851477175</v>
+        <v>16.06292546888208</v>
       </c>
       <c r="C25">
-        <v>5.565749544275298</v>
+        <v>8.905393353143504</v>
       </c>
       <c r="D25">
-        <v>6.407586618059033</v>
+        <v>4.874115710655781</v>
       </c>
       <c r="F25">
-        <v>32.2875277179829</v>
+        <v>27.05554120262402</v>
       </c>
       <c r="G25">
-        <v>3.674948848218013</v>
+        <v>2.097690989314956</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.39154843797377</v>
+        <v>13.9822896243872</v>
       </c>
       <c r="N25">
-        <v>20.18310787214158</v>
+        <v>13.19685894204199</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.64848540962437</v>
+        <v>24.04728939714326</v>
       </c>
       <c r="C2">
-        <v>8.138298905464126</v>
+        <v>14.75151543860702</v>
       </c>
       <c r="D2">
-        <v>4.896075223912685</v>
+        <v>4.542501868288096</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>26.12356168118736</v>
+        <v>27.3736365008377</v>
       </c>
       <c r="G2">
-        <v>2.107945267351319</v>
+        <v>34.99574209725661</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.628768097552946</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.2729171224361</v>
+      </c>
+      <c r="J2">
+        <v>11.64608258762929</v>
       </c>
       <c r="K2">
-        <v>12.7739259782493</v>
+        <v>17.79721017059937</v>
+      </c>
+      <c r="L2">
+        <v>6.146358664245954</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.5368669092537</v>
+        <v>8.398183175627965</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.65576669882612</v>
+        <v>22.49096694956694</v>
       </c>
       <c r="C3">
-        <v>7.581722392331026</v>
+        <v>13.84971521219339</v>
       </c>
       <c r="D3">
-        <v>4.911124624526314</v>
+        <v>4.427895744845632</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25.53085506973949</v>
+        <v>26.78370347990181</v>
       </c>
       <c r="G3">
-        <v>2.115124267137494</v>
+        <v>33.97852041420046</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.892831250899945</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.490456909004089</v>
+      </c>
+      <c r="J3">
+        <v>11.557467679018</v>
       </c>
       <c r="K3">
-        <v>11.89612453281283</v>
+        <v>17.79564452944354</v>
+      </c>
+      <c r="L3">
+        <v>6.080359402920403</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.77426267362415</v>
+        <v>8.072778198318527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.07329027719516</v>
+        <v>21.47979457705589</v>
       </c>
       <c r="C4">
-        <v>7.221546685522126</v>
+        <v>13.26937141698918</v>
       </c>
       <c r="D4">
-        <v>4.920476852812918</v>
+        <v>4.356670318422109</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>25.18621202742334</v>
+        <v>26.42423185437448</v>
       </c>
       <c r="G4">
-        <v>2.119653490999067</v>
+        <v>33.35339566062207</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.060397593919569</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.629008676028326</v>
+      </c>
+      <c r="J4">
+        <v>11.50667117728018</v>
       </c>
       <c r="K4">
-        <v>11.32760663981429</v>
+        <v>17.79987198745641</v>
+      </c>
+      <c r="L4">
+        <v>6.038287177915736</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.92357663615352</v>
+        <v>7.867226671936154</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83024031705161</v>
+        <v>21.05382967976054</v>
       </c>
       <c r="C5">
-        <v>7.070091513103549</v>
+        <v>13.03526228637651</v>
       </c>
       <c r="D5">
-        <v>4.92432030191515</v>
+        <v>4.328881919506947</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>25.05062267508115</v>
+        <v>26.26288979287955</v>
       </c>
       <c r="G5">
-        <v>2.121530793088588</v>
+        <v>33.07081733684004</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.130457931750505</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.689367583358669</v>
+      </c>
+      <c r="J5">
+        <v>11.48163873070636</v>
       </c>
       <c r="K5">
-        <v>11.08843212714223</v>
+        <v>17.79225434819962</v>
+      </c>
+      <c r="L5">
+        <v>6.020091155948784</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.98533310522646</v>
+        <v>7.783941105352075</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.78954374882831</v>
+        <v>20.98232908582669</v>
       </c>
       <c r="C6">
-        <v>7.044658539398245</v>
+        <v>13.00707455557924</v>
       </c>
       <c r="D6">
-        <v>4.924960578618052</v>
+        <v>4.326019526201862</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>25.02840136061858</v>
+        <v>26.21699297823078</v>
       </c>
       <c r="G6">
-        <v>2.121844457857661</v>
+        <v>32.98969815279954</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.142643192357931</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.702831749251845</v>
+      </c>
+      <c r="J6">
+        <v>11.4711513258395</v>
       </c>
       <c r="K6">
-        <v>11.04826248768225</v>
+        <v>17.77813426302531</v>
+      </c>
+      <c r="L6">
+        <v>6.016247954307439</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.99564316097162</v>
+        <v>7.772290577958738</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.07003521914865</v>
+        <v>21.47427742230031</v>
       </c>
       <c r="C7">
-        <v>7.219523117318271</v>
+        <v>13.29586556580617</v>
       </c>
       <c r="D7">
-        <v>4.920528550455426</v>
+        <v>4.361063075285003</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>25.18436376291987</v>
+        <v>26.37012248337612</v>
       </c>
       <c r="G7">
-        <v>2.11967867955681</v>
+        <v>33.2570492110451</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.062590208137847</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.638751849578973</v>
+      </c>
+      <c r="J7">
+        <v>11.48895717947154</v>
       </c>
       <c r="K7">
-        <v>11.32441150153532</v>
+        <v>17.76449613924705</v>
+      </c>
+      <c r="L7">
+        <v>6.035892977928305</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.92440579948768</v>
+        <v>7.872195940237392</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.30146355001609</v>
+        <v>23.52231880523366</v>
       </c>
       <c r="C8">
-        <v>7.950189658318385</v>
+        <v>14.48253667953513</v>
       </c>
       <c r="D8">
-        <v>4.901243614777075</v>
+        <v>4.509262392029824</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>25.91520249454155</v>
+        <v>27.10295070885572</v>
       </c>
       <c r="G8">
-        <v>2.110396099986988</v>
+        <v>34.52724848001232</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.720270582737419</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.358436809914504</v>
+      </c>
+      <c r="J8">
+        <v>11.59210155342345</v>
       </c>
       <c r="K8">
-        <v>12.47734898537779</v>
+        <v>17.74917538619648</v>
+      </c>
+      <c r="L8">
+        <v>6.121195859623552</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.61799371594491</v>
+        <v>8.29491022216888</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.67750226801124</v>
+        <v>27.09783784431505</v>
       </c>
       <c r="C9">
-        <v>9.238926917251099</v>
+        <v>16.55045647612841</v>
       </c>
       <c r="D9">
-        <v>4.864118296617101</v>
+        <v>4.784504501679447</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>27.50063310844708</v>
+        <v>28.64618753135764</v>
       </c>
       <c r="G9">
-        <v>2.093101751635729</v>
+        <v>37.16001281427113</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.088716354538265</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.832655093114214</v>
+      </c>
+      <c r="J9">
+        <v>11.85443136405565</v>
       </c>
       <c r="K9">
-        <v>14.50714802812919</v>
+        <v>17.8258704305225</v>
+      </c>
+      <c r="L9">
+        <v>6.280194853474185</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.04456428638455</v>
+        <v>9.065050975869305</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.26478945738632</v>
+        <v>29.45734218996355</v>
       </c>
       <c r="C10">
-        <v>10.10117222035353</v>
+        <v>18.00179431471001</v>
       </c>
       <c r="D10">
-        <v>4.836985970499331</v>
+        <v>4.964535882006532</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>28.75718173965655</v>
+        <v>29.51071632035681</v>
       </c>
       <c r="G10">
-        <v>2.08086907440254</v>
+        <v>38.65739418779524</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.682579548008087</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.489746419029605</v>
+      </c>
+      <c r="J10">
+        <v>11.98236383921869</v>
       </c>
       <c r="K10">
-        <v>15.86241275789393</v>
+        <v>17.75107813013185</v>
+      </c>
+      <c r="L10">
+        <v>6.372034460846582</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.63901439945508</v>
+        <v>9.509638571944148</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.95372221103194</v>
+        <v>30.4679701254673</v>
       </c>
       <c r="C11">
-        <v>10.47584128284895</v>
+        <v>19.08882779446227</v>
       </c>
       <c r="D11">
-        <v>4.824610589463276</v>
+        <v>4.886824738988213</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>29.34857785155122</v>
+        <v>27.68074056134045</v>
       </c>
       <c r="G11">
-        <v>2.075387385562952</v>
+        <v>35.99477618577688</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.695013173797308</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.600043861278624</v>
+      </c>
+      <c r="J11">
+        <v>11.36607804101841</v>
       </c>
       <c r="K11">
-        <v>16.45056182930143</v>
+        <v>16.43989108986892</v>
+      </c>
+      <c r="L11">
+        <v>6.331481404777726</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.45775252199756</v>
+        <v>8.937402220125332</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.20994842820028</v>
+        <v>30.84020645770575</v>
       </c>
       <c r="C12">
-        <v>10.6152614875672</v>
+        <v>19.68318860799025</v>
       </c>
       <c r="D12">
-        <v>4.81991418315019</v>
+        <v>4.779764704302793</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>29.57536780539455</v>
+        <v>26.00769589858927</v>
       </c>
       <c r="G12">
-        <v>2.073321779050193</v>
+        <v>33.51871317441203</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.101854083721598</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.619000148664563</v>
+      </c>
+      <c r="J12">
+        <v>10.84159640419105</v>
       </c>
       <c r="K12">
-        <v>16.66929962896099</v>
+        <v>15.43275357327504</v>
+      </c>
+      <c r="L12">
+        <v>6.375784223783645</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.38956517397021</v>
+        <v>8.358696623920796</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.15497088848716</v>
+        <v>30.75673734464251</v>
       </c>
       <c r="C13">
-        <v>10.58534307290143</v>
+        <v>19.98742397786301</v>
       </c>
       <c r="D13">
-        <v>4.82092617702048</v>
+        <v>4.648580434030912</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>29.52639804885524</v>
+        <v>24.26034220324249</v>
       </c>
       <c r="G13">
-        <v>2.073766220667809</v>
+        <v>30.85860909857553</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.545670513991745</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.574301686539741</v>
+      </c>
+      <c r="J13">
+        <v>10.32879331537539</v>
       </c>
       <c r="K13">
-        <v>16.6223659788445</v>
+        <v>14.55838420278767</v>
+      </c>
+      <c r="L13">
+        <v>6.479833631796581</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.40423055805686</v>
+        <v>7.740134748135409</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.97489480121739</v>
+        <v>30.49124541320625</v>
       </c>
       <c r="C14">
-        <v>10.48736033855657</v>
+        <v>20.08134322169722</v>
       </c>
       <c r="D14">
-        <v>4.82422444791829</v>
+        <v>4.54703675430134</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>29.36717901900699</v>
+        <v>22.99003280827789</v>
       </c>
       <c r="G14">
-        <v>2.07521725321358</v>
+        <v>28.87508607240086</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.566553754254175</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.515913244808847</v>
+      </c>
+      <c r="J14">
+        <v>9.973902409885213</v>
       </c>
       <c r="K14">
-        <v>16.46863673076985</v>
+        <v>14.01930726329159</v>
+      </c>
+      <c r="L14">
+        <v>6.588506287528154</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.45213369126997</v>
+        <v>7.290922164789508</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.86398974395347</v>
+        <v>30.32825457617402</v>
       </c>
       <c r="C15">
-        <v>10.42702497337576</v>
+        <v>20.05135570976929</v>
       </c>
       <c r="D15">
-        <v>4.826243251810961</v>
+        <v>4.517976353768919</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>29.27002293291556</v>
+        <v>22.65093170203696</v>
       </c>
       <c r="G15">
-        <v>2.0761073250815</v>
+        <v>28.32512049878972</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.805203171021716</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.520870940958566</v>
+      </c>
+      <c r="J15">
+        <v>9.885448803272688</v>
       </c>
       <c r="K15">
-        <v>16.37395763555912</v>
+        <v>13.90544485026874</v>
+      </c>
+      <c r="L15">
+        <v>6.615143794426491</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.4815344001531</v>
+        <v>7.173652966442562</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.21910830805679</v>
+        <v>29.38010059638896</v>
       </c>
       <c r="C16">
-        <v>10.07633882713001</v>
+        <v>19.43819143698658</v>
       </c>
       <c r="D16">
-        <v>4.837793614842797</v>
+        <v>4.466530193980722</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>28.71893002573788</v>
+        <v>22.55781921688853</v>
       </c>
       <c r="G16">
-        <v>2.081228840254941</v>
+        <v>28.05069176739623</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.619470371878321</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.667455168956833</v>
+      </c>
+      <c r="J16">
+        <v>9.921022402433291</v>
       </c>
       <c r="K16">
-        <v>15.82341320814855</v>
+        <v>14.11180314178907</v>
+      </c>
+      <c r="L16">
+        <v>6.548569639608931</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.65092417009448</v>
+        <v>7.089203639982511</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.81508179150633</v>
+        <v>28.78424151479287</v>
       </c>
       <c r="C17">
-        <v>9.85675059396659</v>
+        <v>18.90474268120206</v>
       </c>
       <c r="D17">
-        <v>4.844867226859406</v>
+        <v>4.481787892354678</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>28.38591203396976</v>
+        <v>23.16898934286843</v>
       </c>
       <c r="G17">
-        <v>2.084390790601158</v>
+        <v>28.92192395036649</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.908291535516287</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.74779033968679</v>
+      </c>
+      <c r="J17">
+        <v>10.13573752229208</v>
       </c>
       <c r="K17">
-        <v>15.47847388764314</v>
+        <v>14.54120836607606</v>
+      </c>
+      <c r="L17">
+        <v>6.432158364140331</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.75565654467803</v>
+        <v>7.266702219259871</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.57957099237975</v>
+        <v>28.43674556134453</v>
       </c>
       <c r="C18">
-        <v>9.72879106187869</v>
+        <v>18.36761668892874</v>
       </c>
       <c r="D18">
-        <v>4.84893303628061</v>
+        <v>4.555672401018843</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>28.19623064662159</v>
+        <v>24.49642767265817</v>
       </c>
       <c r="G18">
-        <v>2.08621738808449</v>
+        <v>30.9386762916486</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.692730274650261</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.766593886135323</v>
+      </c>
+      <c r="J18">
+        <v>10.54437235453931</v>
       </c>
       <c r="K18">
-        <v>15.27739759007899</v>
+        <v>15.26837901511935</v>
+      </c>
+      <c r="L18">
+        <v>6.301671003765466</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.81619990202833</v>
+        <v>7.697564842207114</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49929117119502</v>
+        <v>28.31926234628703</v>
       </c>
       <c r="C19">
-        <v>9.685179385623687</v>
+        <v>17.92529931968616</v>
       </c>
       <c r="D19">
-        <v>4.85030933895364</v>
+        <v>4.681072276133968</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>28.13232793627639</v>
+        <v>26.22655964954878</v>
       </c>
       <c r="G19">
-        <v>2.086837254913904</v>
+        <v>33.5680316133263</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.267118868519576</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.751557868177881</v>
+      </c>
+      <c r="J19">
+        <v>11.05825149585788</v>
       </c>
       <c r="K19">
-        <v>15.20885407816414</v>
+        <v>16.18238437324665</v>
+      </c>
+      <c r="L19">
+        <v>6.236419822816992</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.83675144661597</v>
+        <v>8.319802002140406</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.85841382801725</v>
+        <v>28.85548851501282</v>
       </c>
       <c r="C20">
-        <v>9.880297277785653</v>
+        <v>17.70460198826859</v>
       </c>
       <c r="D20">
-        <v>4.844114551311296</v>
+        <v>4.929788727058355</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>28.42116976646235</v>
+        <v>29.12697931407888</v>
       </c>
       <c r="G20">
-        <v>2.084053387320739</v>
+        <v>37.99713221273031</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.790015549797973</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.606110835114126</v>
+      </c>
+      <c r="J20">
+        <v>11.89298601561262</v>
       </c>
       <c r="K20">
-        <v>15.51546956944691</v>
+        <v>17.65569560011995</v>
+      </c>
+      <c r="L20">
+        <v>6.341824008027524</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.74447622390456</v>
+        <v>9.406723032628205</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.0279130282191</v>
+        <v>30.59830415769345</v>
       </c>
       <c r="C21">
-        <v>10.51620640825852</v>
+        <v>18.68297079171192</v>
       </c>
       <c r="D21">
-        <v>4.823255984719136</v>
+        <v>5.093300906930147</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>29.41386834696758</v>
+        <v>30.21310556884184</v>
       </c>
       <c r="G21">
-        <v>2.074790787928348</v>
+        <v>39.77919790696908</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.68351733124557</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.68258232909704</v>
+      </c>
+      <c r="J21">
+        <v>12.12677731141342</v>
       </c>
       <c r="K21">
-        <v>16.51389798128868</v>
+        <v>17.85762219144904</v>
+      </c>
+      <c r="L21">
+        <v>6.438636582389763</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.43805117181342</v>
+        <v>9.874096284513989</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.76515567251397</v>
+        <v>31.70000940929913</v>
       </c>
       <c r="C22">
-        <v>10.91751317679077</v>
+        <v>19.29744101412872</v>
       </c>
       <c r="D22">
-        <v>4.809562041522349</v>
+        <v>5.184017477950658</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>30.07922601620979</v>
+        <v>30.85077308356143</v>
       </c>
       <c r="G22">
-        <v>2.06879561278545</v>
+        <v>40.84156364550236</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.892575960973009</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.849260301318024</v>
+      </c>
+      <c r="J22">
+        <v>12.26524287570858</v>
       </c>
       <c r="K22">
-        <v>17.14327186610486</v>
+        <v>17.9664567241644</v>
+      </c>
+      <c r="L22">
+        <v>6.494337538862268</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.24041969763237</v>
+        <v>10.11981732514212</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.37411687602489</v>
+        <v>31.11700989126835</v>
       </c>
       <c r="C23">
-        <v>10.70461253092578</v>
+        <v>18.94575052763968</v>
       </c>
       <c r="D23">
-        <v>4.816878250413623</v>
+        <v>5.130869560181823</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>29.72259232227451</v>
+        <v>30.56341328997059</v>
       </c>
       <c r="G23">
-        <v>2.071990619682652</v>
+        <v>40.36591049553159</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.782454800755015</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.755696160447874</v>
+      </c>
+      <c r="J23">
+        <v>12.20993809993125</v>
       </c>
       <c r="K23">
-        <v>16.80944793146759</v>
+        <v>17.94773348565028</v>
+      </c>
+      <c r="L23">
+        <v>6.466822498973972</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.34566115660993</v>
+        <v>9.983453078691376</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.83883348479031</v>
+        <v>28.82691561973958</v>
       </c>
       <c r="C24">
-        <v>9.869657169968118</v>
+        <v>17.60700655763707</v>
       </c>
       <c r="D24">
-        <v>4.844454838337811</v>
+        <v>4.935024930776955</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>28.40522421600465</v>
+        <v>29.39268332151991</v>
       </c>
       <c r="G24">
-        <v>2.08420589995889</v>
+        <v>38.41221802220402</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.769669295107347</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.584915957800148</v>
+      </c>
+      <c r="J24">
+        <v>11.97911539364437</v>
       </c>
       <c r="K24">
-        <v>15.49875244475694</v>
+        <v>17.82929888988265</v>
+      </c>
+      <c r="L24">
+        <v>6.357330053723011</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.74952981405727</v>
+        <v>9.462508228148973</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06292546888208</v>
+        <v>26.17758709868114</v>
       </c>
       <c r="C25">
-        <v>8.905393353143504</v>
+        <v>16.05887372960297</v>
       </c>
       <c r="D25">
-        <v>4.874115710655781</v>
+        <v>4.718821080157387</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>27.05554120262402</v>
+        <v>28.14026507236615</v>
       </c>
       <c r="G25">
-        <v>2.097690989314956</v>
+        <v>36.29841145314218</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.257262828370298</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.987974293997822</v>
+      </c>
+      <c r="J25">
+        <v>11.74990622278936</v>
       </c>
       <c r="K25">
-        <v>13.9822896243872</v>
+        <v>17.73732952574305</v>
+      </c>
+      <c r="L25">
+        <v>6.234887299135598</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.19685894204199</v>
+        <v>8.872138457123715</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04728939714326</v>
+        <v>24.04144974453846</v>
       </c>
       <c r="C2">
-        <v>14.75151543860702</v>
+        <v>15.30161940176745</v>
       </c>
       <c r="D2">
-        <v>4.542501868288096</v>
+        <v>4.721471811095604</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.3736365008377</v>
+        <v>25.85314218567625</v>
       </c>
       <c r="G2">
-        <v>34.99574209725661</v>
+        <v>31.9908822410755</v>
       </c>
       <c r="H2">
-        <v>2.628768097552946</v>
+        <v>2.506072222353892</v>
       </c>
       <c r="I2">
-        <v>3.2729171224361</v>
+        <v>3.116589779266368</v>
       </c>
       <c r="J2">
-        <v>11.64608258762929</v>
+        <v>11.38698506411956</v>
       </c>
       <c r="K2">
-        <v>17.79721017059937</v>
+        <v>16.55769246404112</v>
       </c>
       <c r="L2">
-        <v>6.146358664245954</v>
+        <v>13.52347023739831</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.00431610576201</v>
       </c>
       <c r="N2">
-        <v>8.398183175627965</v>
+        <v>6.073316075113143</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.649336992501432</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49096694956694</v>
+        <v>22.47691840642298</v>
       </c>
       <c r="C3">
-        <v>13.84971521219339</v>
+        <v>14.29887623555867</v>
       </c>
       <c r="D3">
-        <v>4.427895744845632</v>
+        <v>4.602612701549843</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.78370347990181</v>
+        <v>25.41182366856617</v>
       </c>
       <c r="G3">
-        <v>33.97852041420046</v>
+        <v>31.27378799805961</v>
       </c>
       <c r="H3">
-        <v>2.892831250899945</v>
+        <v>2.747004299274011</v>
       </c>
       <c r="I3">
-        <v>3.490456909004089</v>
+        <v>3.30666384603825</v>
       </c>
       <c r="J3">
-        <v>11.557467679018</v>
+        <v>11.30111231155834</v>
       </c>
       <c r="K3">
-        <v>17.79564452944354</v>
+        <v>16.65331219903391</v>
       </c>
       <c r="L3">
-        <v>6.080359402920403</v>
+        <v>13.65942715345377</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.02969721515739</v>
       </c>
       <c r="N3">
-        <v>8.072778198318527</v>
+        <v>6.01669966794277</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.315335976308532</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.47979457705589</v>
+        <v>21.45896422267064</v>
       </c>
       <c r="C4">
-        <v>13.26937141698918</v>
+        <v>13.65208313144117</v>
       </c>
       <c r="D4">
-        <v>4.356670318422109</v>
+        <v>4.528982685949626</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.42423185437448</v>
+        <v>25.14344628358557</v>
       </c>
       <c r="G4">
-        <v>33.35339566062207</v>
+        <v>30.84005110249045</v>
       </c>
       <c r="H4">
-        <v>3.060397593919569</v>
+        <v>2.90001100887298</v>
       </c>
       <c r="I4">
-        <v>3.629008676028326</v>
+        <v>3.428087774295965</v>
       </c>
       <c r="J4">
-        <v>11.50667117728018</v>
+        <v>11.24880121553996</v>
       </c>
       <c r="K4">
-        <v>17.79987198745641</v>
+        <v>16.7155421617135</v>
       </c>
       <c r="L4">
-        <v>6.038287177915736</v>
+        <v>13.74194668469974</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.0660306592191</v>
       </c>
       <c r="N4">
-        <v>7.867226671936154</v>
+        <v>5.980572613925115</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.104641890592402</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05382967976054</v>
+        <v>21.02975572262015</v>
       </c>
       <c r="C5">
-        <v>13.03526228637651</v>
+        <v>13.38941431377418</v>
       </c>
       <c r="D5">
-        <v>4.328881919506947</v>
+        <v>4.500197964962749</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.26288979287955</v>
+        <v>25.02054657013266</v>
       </c>
       <c r="G5">
-        <v>33.07081733684004</v>
+        <v>30.63944905514994</v>
       </c>
       <c r="H5">
-        <v>3.130457931750505</v>
+        <v>2.964012808278299</v>
       </c>
       <c r="I5">
-        <v>3.689367583358669</v>
+        <v>3.481830498836903</v>
       </c>
       <c r="J5">
-        <v>11.48163873070636</v>
+        <v>11.22284188862605</v>
       </c>
       <c r="K5">
-        <v>17.79225434819962</v>
+        <v>16.73255982898703</v>
       </c>
       <c r="L5">
-        <v>6.020091155948784</v>
+        <v>13.76716995035995</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.08026940590041</v>
       </c>
       <c r="N5">
-        <v>7.783941105352075</v>
+        <v>5.964963744419549</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.019147893663604</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.98232908582669</v>
+        <v>20.95766587856952</v>
       </c>
       <c r="C6">
-        <v>13.00707455557924</v>
+        <v>13.35597778670825</v>
       </c>
       <c r="D6">
-        <v>4.326019526201862</v>
+        <v>4.49707935054215</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.21699297823078</v>
+        <v>24.98278446210619</v>
       </c>
       <c r="G6">
-        <v>32.98969815279954</v>
+        <v>30.57498488192476</v>
       </c>
       <c r="H6">
-        <v>3.142643192357931</v>
+        <v>2.975148278891583</v>
       </c>
       <c r="I6">
-        <v>3.702831749251845</v>
+        <v>3.49476677595185</v>
       </c>
       <c r="J6">
-        <v>11.4711513258395</v>
+        <v>11.21273821011346</v>
       </c>
       <c r="K6">
-        <v>17.77813426302531</v>
+        <v>16.724235262531</v>
       </c>
       <c r="L6">
-        <v>6.016247954307439</v>
+        <v>13.76138175199031</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.07600828616991</v>
       </c>
       <c r="N6">
-        <v>7.772290577958738</v>
+        <v>5.961696660261651</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.006938164807435</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.47427742230031</v>
+        <v>21.45341243875774</v>
       </c>
       <c r="C7">
-        <v>13.29586556580617</v>
+        <v>13.66624415098769</v>
       </c>
       <c r="D7">
-        <v>4.361063075285003</v>
+        <v>4.537859428934837</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.37012248337612</v>
+        <v>25.0678814828581</v>
       </c>
       <c r="G7">
-        <v>33.2570492110451</v>
+        <v>30.81399402462436</v>
       </c>
       <c r="H7">
-        <v>3.062590208137847</v>
+        <v>2.902762395086192</v>
       </c>
       <c r="I7">
-        <v>3.638751849578973</v>
+        <v>3.439957967681349</v>
       </c>
       <c r="J7">
-        <v>11.48895717947154</v>
+        <v>11.18244485285161</v>
       </c>
       <c r="K7">
-        <v>17.76449613924705</v>
+        <v>16.67168810372643</v>
       </c>
       <c r="L7">
-        <v>6.035892977928305</v>
+        <v>13.70371302874329</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.03812398889571</v>
       </c>
       <c r="N7">
-        <v>7.872195940237392</v>
+        <v>5.978056376628557</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.109097027471861</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.52231880523366</v>
+        <v>23.51403172135955</v>
       </c>
       <c r="C8">
-        <v>14.48253667953513</v>
+        <v>14.9641353276256</v>
       </c>
       <c r="D8">
-        <v>4.509262392029824</v>
+        <v>4.701870675656813</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.10295070885572</v>
+        <v>25.55349980702059</v>
       </c>
       <c r="G8">
-        <v>34.52724848001232</v>
+        <v>31.83346697981787</v>
       </c>
       <c r="H8">
-        <v>2.720270582737419</v>
+        <v>2.591833877174702</v>
       </c>
       <c r="I8">
-        <v>3.358436809914504</v>
+        <v>3.196820992264124</v>
       </c>
       <c r="J8">
-        <v>11.59210155342345</v>
+        <v>11.17318854076957</v>
       </c>
       <c r="K8">
-        <v>17.74917538619648</v>
+        <v>16.50559947664074</v>
       </c>
       <c r="L8">
-        <v>6.121195859623552</v>
+        <v>13.50117859513202</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.94973134700864</v>
       </c>
       <c r="N8">
-        <v>8.29491022216888</v>
+        <v>6.050184315564687</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.54256070342467</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09783784431505</v>
+        <v>27.10099583337609</v>
       </c>
       <c r="C9">
-        <v>16.55045647612841</v>
+        <v>17.25625570157266</v>
       </c>
       <c r="D9">
-        <v>4.784504501679447</v>
+        <v>4.992108612318127</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.64618753135764</v>
+        <v>26.70425856457508</v>
       </c>
       <c r="G9">
-        <v>37.16001281427113</v>
+        <v>33.79842933785449</v>
       </c>
       <c r="H9">
-        <v>2.088716354538265</v>
+        <v>2.016725404436908</v>
       </c>
       <c r="I9">
-        <v>2.832655093114214</v>
+        <v>2.737076731661577</v>
       </c>
       <c r="J9">
-        <v>11.85443136405565</v>
+        <v>11.36739687952831</v>
       </c>
       <c r="K9">
-        <v>17.8258704305225</v>
+        <v>16.31334006979609</v>
       </c>
       <c r="L9">
-        <v>6.280194853474185</v>
+        <v>13.18268702665408</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.01567312922091</v>
       </c>
       <c r="N9">
-        <v>9.065050975869305</v>
+        <v>6.186034838712577</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.335011029475087</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45734218996355</v>
+        <v>29.46809740251082</v>
       </c>
       <c r="C10">
-        <v>18.00179431471001</v>
+        <v>18.78789166478139</v>
       </c>
       <c r="D10">
-        <v>4.964535882006532</v>
+        <v>5.203922191219988</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.51071632035681</v>
+        <v>27.18603893190505</v>
       </c>
       <c r="G10">
-        <v>38.65739418779524</v>
+        <v>35.23574919922154</v>
       </c>
       <c r="H10">
-        <v>1.682579548008087</v>
+        <v>1.653381544180564</v>
       </c>
       <c r="I10">
-        <v>2.489746419029605</v>
+        <v>2.543762672327097</v>
       </c>
       <c r="J10">
-        <v>11.98236383921869</v>
+        <v>11.17368886205267</v>
       </c>
       <c r="K10">
-        <v>17.75107813013185</v>
+        <v>15.99417325728989</v>
       </c>
       <c r="L10">
-        <v>6.372034460846582</v>
+        <v>12.8020023081988</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.00738215008115</v>
       </c>
       <c r="N10">
-        <v>9.509638571944148</v>
+        <v>6.265080317679472</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.791570358018149</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.4679701254673</v>
+        <v>30.476677129403</v>
       </c>
       <c r="C11">
-        <v>19.08882779446227</v>
+        <v>19.69829984228009</v>
       </c>
       <c r="D11">
-        <v>4.886824738988213</v>
+        <v>5.141030823267044</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.68074056134045</v>
+        <v>25.27539883314952</v>
       </c>
       <c r="G11">
-        <v>35.99477618577688</v>
+        <v>33.60467260181494</v>
       </c>
       <c r="H11">
-        <v>2.695013173797308</v>
+        <v>2.686974361402713</v>
       </c>
       <c r="I11">
-        <v>2.600043861278624</v>
+        <v>2.639029219503602</v>
       </c>
       <c r="J11">
-        <v>11.36607804101841</v>
+        <v>10.13691346952411</v>
       </c>
       <c r="K11">
-        <v>16.43989108986892</v>
+        <v>14.76678672829934</v>
       </c>
       <c r="L11">
-        <v>6.331481404777726</v>
+        <v>11.89121920325466</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.10513114030939</v>
       </c>
       <c r="N11">
-        <v>8.937402220125332</v>
+        <v>6.261966270264541</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.189044481172294</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.84020645770575</v>
+        <v>30.84401174655905</v>
       </c>
       <c r="C12">
-        <v>19.68318860799025</v>
+        <v>20.1537786861121</v>
       </c>
       <c r="D12">
-        <v>4.779764704302793</v>
+        <v>5.021724493340325</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.00769589858927</v>
+        <v>23.70101358051507</v>
       </c>
       <c r="G12">
-        <v>33.51871317441203</v>
+        <v>31.80115759808015</v>
       </c>
       <c r="H12">
-        <v>4.101854083721598</v>
+        <v>4.097927251678905</v>
       </c>
       <c r="I12">
-        <v>2.619000148664563</v>
+        <v>2.653915622657045</v>
       </c>
       <c r="J12">
-        <v>10.84159640419105</v>
+        <v>9.525647622630871</v>
       </c>
       <c r="K12">
-        <v>15.43275357327504</v>
+        <v>13.93543413241678</v>
       </c>
       <c r="L12">
-        <v>6.375784223783645</v>
+        <v>11.32334683826816</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.428365270105383</v>
       </c>
       <c r="N12">
-        <v>8.358696623920796</v>
+        <v>6.335707510211629</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.582267785017974</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75673734464251</v>
+        <v>30.76005733449402</v>
       </c>
       <c r="C13">
-        <v>19.98742397786301</v>
+        <v>20.3560153743075</v>
       </c>
       <c r="D13">
-        <v>4.648580434030912</v>
+        <v>4.849680886826016</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.26034220324249</v>
+        <v>22.26095909676069</v>
       </c>
       <c r="G13">
-        <v>30.85860909857553</v>
+        <v>29.45265128335973</v>
       </c>
       <c r="H13">
-        <v>5.545670513991745</v>
+        <v>5.540457352829902</v>
       </c>
       <c r="I13">
-        <v>2.574301686539741</v>
+        <v>2.616150686158614</v>
       </c>
       <c r="J13">
-        <v>10.32879331537539</v>
+        <v>9.236036501415921</v>
       </c>
       <c r="K13">
-        <v>14.55838420278767</v>
+        <v>13.33785921974604</v>
       </c>
       <c r="L13">
-        <v>6.479833631796581</v>
+        <v>10.94384559551113</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.884177727557784</v>
       </c>
       <c r="N13">
-        <v>7.740134748135409</v>
+        <v>6.463880259059179</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.934854011233313</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.49124541320625</v>
+        <v>30.49514947154009</v>
       </c>
       <c r="C14">
-        <v>20.08134322169722</v>
+        <v>20.39255716842614</v>
       </c>
       <c r="D14">
-        <v>4.54703675430134</v>
+        <v>4.709690860208918</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.99003280827789</v>
+        <v>21.29566142570395</v>
       </c>
       <c r="G14">
-        <v>28.87508607240086</v>
+        <v>27.53518451706558</v>
       </c>
       <c r="H14">
-        <v>6.566553754254175</v>
+        <v>6.559379884612869</v>
       </c>
       <c r="I14">
-        <v>2.515913244808847</v>
+        <v>2.567822361770076</v>
       </c>
       <c r="J14">
-        <v>9.973902409885213</v>
+        <v>9.152427372473001</v>
       </c>
       <c r="K14">
-        <v>14.01930726329159</v>
+        <v>13.02324255866246</v>
       </c>
       <c r="L14">
-        <v>6.588506287528154</v>
+        <v>10.75222486238133</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.570363240511277</v>
       </c>
       <c r="N14">
-        <v>7.290922164789508</v>
+        <v>6.585234835970708</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.465227387176515</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.32825457617402</v>
+        <v>30.3323868614813</v>
       </c>
       <c r="C15">
-        <v>20.05135570976929</v>
+        <v>20.35466323271815</v>
       </c>
       <c r="D15">
-        <v>4.517976353768919</v>
+        <v>4.667318022566764</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.65093170203696</v>
+        <v>21.06945698425948</v>
       </c>
       <c r="G15">
-        <v>28.32512049878972</v>
+        <v>26.93983124418396</v>
       </c>
       <c r="H15">
-        <v>6.805203171021716</v>
+        <v>6.796922329046354</v>
       </c>
       <c r="I15">
-        <v>2.520870940958566</v>
+        <v>2.546741702819694</v>
       </c>
       <c r="J15">
-        <v>9.885448803272688</v>
+        <v>9.178249115930024</v>
       </c>
       <c r="K15">
-        <v>13.90544485026874</v>
+        <v>12.978113154456</v>
       </c>
       <c r="L15">
-        <v>6.615143794426491</v>
+        <v>10.72642190640342</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.514164750081257</v>
       </c>
       <c r="N15">
-        <v>7.173652966442562</v>
+        <v>6.614492936548978</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.342864405651063</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38010059638896</v>
+        <v>29.38474365245691</v>
       </c>
       <c r="C16">
-        <v>19.43819143698658</v>
+        <v>19.79679837854261</v>
       </c>
       <c r="D16">
-        <v>4.466530193980722</v>
+        <v>4.582371663587501</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.55781921688853</v>
+        <v>21.28358997995677</v>
       </c>
       <c r="G16">
-        <v>28.05069176739623</v>
+        <v>26.15554488653801</v>
       </c>
       <c r="H16">
-        <v>6.619470371878321</v>
+        <v>6.603749261429746</v>
       </c>
       <c r="I16">
-        <v>2.667455168956833</v>
+        <v>2.603768570512221</v>
       </c>
       <c r="J16">
-        <v>9.921022402433291</v>
+        <v>9.622547043036048</v>
       </c>
       <c r="K16">
-        <v>14.11180314178907</v>
+        <v>13.298791618475</v>
       </c>
       <c r="L16">
-        <v>6.548569639608931</v>
+        <v>10.94381331959777</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.72806020302316</v>
       </c>
       <c r="N16">
-        <v>7.089203639982511</v>
+        <v>6.548809183668183</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.258763371036353</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78424151479287</v>
+        <v>28.78871170512006</v>
       </c>
       <c r="C17">
-        <v>18.90474268120206</v>
+        <v>19.3251268824803</v>
       </c>
       <c r="D17">
-        <v>4.481787892354678</v>
+        <v>4.594712540255807</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.16898934286843</v>
+        <v>21.9379188556698</v>
       </c>
       <c r="G17">
-        <v>28.92192395036649</v>
+        <v>26.68238877290268</v>
       </c>
       <c r="H17">
-        <v>5.908291535516287</v>
+        <v>5.886083245392562</v>
       </c>
       <c r="I17">
-        <v>2.74779033968679</v>
+        <v>2.672145494232078</v>
       </c>
       <c r="J17">
-        <v>10.13573752229208</v>
+        <v>9.976702655888614</v>
       </c>
       <c r="K17">
-        <v>14.54120836607606</v>
+        <v>13.70065404969581</v>
       </c>
       <c r="L17">
-        <v>6.432158364140331</v>
+        <v>11.22267925742235</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.03519494629891</v>
       </c>
       <c r="N17">
-        <v>7.266702219259871</v>
+        <v>6.427386474042772</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.44717102634691</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43674556134453</v>
+        <v>28.44104408162235</v>
       </c>
       <c r="C18">
-        <v>18.36761668892874</v>
+        <v>18.88046554344208</v>
       </c>
       <c r="D18">
-        <v>4.555672401018843</v>
+        <v>4.68370753378344</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.49642767265817</v>
+        <v>23.13355124692034</v>
       </c>
       <c r="G18">
-        <v>30.9386762916486</v>
+        <v>28.31918545735435</v>
       </c>
       <c r="H18">
-        <v>4.692730274650261</v>
+        <v>4.66300995732773</v>
       </c>
       <c r="I18">
-        <v>2.766593886135323</v>
+        <v>2.685286028525618</v>
       </c>
       <c r="J18">
-        <v>10.54437235453931</v>
+        <v>10.38493830408557</v>
       </c>
       <c r="K18">
-        <v>15.26837901511935</v>
+        <v>14.28862949242073</v>
       </c>
       <c r="L18">
-        <v>6.301671003765466</v>
+        <v>11.64171447705779</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.503300343638051</v>
       </c>
       <c r="N18">
-        <v>7.697564842207114</v>
+        <v>6.282933450499171</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.899686411785643</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31926234628703</v>
+        <v>28.32358029791401</v>
       </c>
       <c r="C19">
-        <v>17.92529931968616</v>
+        <v>18.55027542800693</v>
       </c>
       <c r="D19">
-        <v>4.681072276133968</v>
+        <v>4.835694029987287</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.22655964954878</v>
+        <v>24.62765912233683</v>
       </c>
       <c r="G19">
-        <v>33.5680316133263</v>
+        <v>30.52659653906109</v>
       </c>
       <c r="H19">
-        <v>3.267118868519576</v>
+        <v>3.227408218406035</v>
       </c>
       <c r="I19">
-        <v>2.751557868177881</v>
+        <v>2.674225100661848</v>
       </c>
       <c r="J19">
-        <v>11.05825149585788</v>
+        <v>10.82109793113514</v>
       </c>
       <c r="K19">
-        <v>16.18238437324665</v>
+        <v>14.99021723651865</v>
       </c>
       <c r="L19">
-        <v>6.236419822816992</v>
+        <v>12.14785944346269</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.06873251344525</v>
       </c>
       <c r="N19">
-        <v>8.319802002140406</v>
+        <v>6.192191616940399</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.550273252167301</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85548851501282</v>
+        <v>28.85993939023595</v>
       </c>
       <c r="C20">
-        <v>17.70460198826859</v>
+        <v>18.49643003743922</v>
       </c>
       <c r="D20">
-        <v>4.929788727058355</v>
+        <v>5.144700896955481</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.12697931407888</v>
+        <v>27.003836630148</v>
       </c>
       <c r="G20">
-        <v>37.99713221273031</v>
+        <v>34.41223725336211</v>
       </c>
       <c r="H20">
-        <v>1.790015549797973</v>
+        <v>1.747174331858387</v>
       </c>
       <c r="I20">
-        <v>2.606110835114126</v>
+        <v>2.551952203394357</v>
       </c>
       <c r="J20">
-        <v>11.89298601561262</v>
+        <v>11.34477919897661</v>
       </c>
       <c r="K20">
-        <v>17.65569560011995</v>
+        <v>16.02817385729783</v>
       </c>
       <c r="L20">
-        <v>6.341824008027524</v>
+        <v>12.86661337198775</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.96439763855978</v>
       </c>
       <c r="N20">
-        <v>9.406723032628205</v>
+        <v>6.241255773813903</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.683959593694683</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.59830415769345</v>
+        <v>30.60522713705037</v>
       </c>
       <c r="C21">
-        <v>18.68297079171192</v>
+        <v>19.40252640769268</v>
       </c>
       <c r="D21">
-        <v>5.093300906930147</v>
+        <v>5.422748849342478</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.21310556884184</v>
+        <v>27.29181752782663</v>
       </c>
       <c r="G21">
-        <v>39.77919790696908</v>
+        <v>37.11186248598905</v>
       </c>
       <c r="H21">
-        <v>1.68351733124557</v>
+        <v>1.682275104543604</v>
       </c>
       <c r="I21">
-        <v>2.68258232909704</v>
+        <v>2.708277483042829</v>
       </c>
       <c r="J21">
-        <v>12.12677731141342</v>
+        <v>10.45351091258061</v>
       </c>
       <c r="K21">
-        <v>17.85762219144904</v>
+        <v>15.73785978622844</v>
       </c>
       <c r="L21">
-        <v>6.438636582389763</v>
+        <v>12.5459696151872</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.93990997538318</v>
       </c>
       <c r="N21">
-        <v>9.874096284513989</v>
+        <v>6.311884357204502</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.16754053766067</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.70000940929913</v>
+        <v>31.69585208408752</v>
       </c>
       <c r="C22">
-        <v>19.29744101412872</v>
+        <v>19.95558336689088</v>
       </c>
       <c r="D22">
-        <v>5.184017477950658</v>
+        <v>5.593216074255345</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.85077308356143</v>
+        <v>27.39484450608507</v>
       </c>
       <c r="G22">
-        <v>40.84156364550236</v>
+        <v>38.87460999131251</v>
       </c>
       <c r="H22">
-        <v>1.892575960973009</v>
+        <v>1.863748700215593</v>
       </c>
       <c r="I22">
-        <v>2.849260301318024</v>
+        <v>2.844084835310571</v>
       </c>
       <c r="J22">
-        <v>12.26524287570858</v>
+        <v>9.835897900024976</v>
       </c>
       <c r="K22">
-        <v>17.9664567241644</v>
+        <v>15.51290546708</v>
       </c>
       <c r="L22">
-        <v>6.494337538862268</v>
+        <v>12.31419622765431</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.9057950198444</v>
       </c>
       <c r="N22">
-        <v>10.11981732514212</v>
+        <v>6.353028545945323</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.42215871547559</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.11700989126835</v>
+        <v>31.11921493765438</v>
       </c>
       <c r="C23">
-        <v>18.94575052763968</v>
+        <v>19.65848205708534</v>
       </c>
       <c r="D23">
-        <v>5.130869560181823</v>
+        <v>5.485637987397435</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.56341328997059</v>
+        <v>27.44926746743996</v>
       </c>
       <c r="G23">
-        <v>40.36591049553159</v>
+        <v>37.8717261727757</v>
       </c>
       <c r="H23">
-        <v>1.782454800755015</v>
+        <v>1.76941360301968</v>
       </c>
       <c r="I23">
-        <v>2.755696160447874</v>
+        <v>2.766500266327733</v>
       </c>
       <c r="J23">
-        <v>12.20993809993125</v>
+        <v>10.2868162655849</v>
       </c>
       <c r="K23">
-        <v>17.94773348565028</v>
+        <v>15.6997442516849</v>
       </c>
       <c r="L23">
-        <v>6.466822498973972</v>
+        <v>12.48248380786168</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.97944182826116</v>
       </c>
       <c r="N23">
-        <v>9.983453078691376</v>
+        <v>6.333665630623677</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.28142225793774</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82691561973958</v>
+        <v>28.83136230320561</v>
       </c>
       <c r="C24">
-        <v>17.60700655763707</v>
+        <v>18.4121127674959</v>
       </c>
       <c r="D24">
-        <v>4.935024930776955</v>
+        <v>5.152683525689555</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.39268332151991</v>
+        <v>27.24098861044182</v>
       </c>
       <c r="G24">
-        <v>38.41221802220402</v>
+        <v>34.76473285053836</v>
       </c>
       <c r="H24">
-        <v>1.769669295107347</v>
+        <v>1.727006780846308</v>
       </c>
       <c r="I24">
-        <v>2.584915957800148</v>
+        <v>2.527272581092928</v>
       </c>
       <c r="J24">
-        <v>11.97911539364437</v>
+        <v>11.42505992333574</v>
       </c>
       <c r="K24">
-        <v>17.82929888988265</v>
+        <v>16.17039847733721</v>
       </c>
       <c r="L24">
-        <v>6.357330053723011</v>
+        <v>12.97041209462947</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.07648182876084</v>
       </c>
       <c r="N24">
-        <v>9.462508228148973</v>
+        <v>6.25188469105523</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.743478449708601</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17758709868114</v>
+        <v>26.17894616890106</v>
       </c>
       <c r="C25">
-        <v>16.05887372960297</v>
+        <v>16.71871189608036</v>
       </c>
       <c r="D25">
-        <v>4.718821080157387</v>
+        <v>4.915591414027412</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.14026507236615</v>
+        <v>26.34783897032737</v>
       </c>
       <c r="G25">
-        <v>36.29841145314218</v>
+        <v>33.04005039977139</v>
       </c>
       <c r="H25">
-        <v>2.257262828370298</v>
+        <v>2.169133586816647</v>
       </c>
       <c r="I25">
-        <v>2.987974293997822</v>
+        <v>2.876823685851156</v>
       </c>
       <c r="J25">
-        <v>11.74990622278936</v>
+        <v>11.35663437881419</v>
       </c>
       <c r="K25">
-        <v>17.73732952574305</v>
+        <v>16.32739684431667</v>
       </c>
       <c r="L25">
-        <v>6.234887299135598</v>
+        <v>13.24382270268158</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.95265281976621</v>
       </c>
       <c r="N25">
-        <v>8.872138457123715</v>
+        <v>6.148286423373349</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.135222240824966</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
